--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_13.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>414138.8255054449</v>
+        <v>437339.8706939355</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2589789.105914735</v>
+        <v>925399.3994514379</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>19958284.28136534</v>
+        <v>18327015.93006066</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4839764.630106804</v>
+        <v>5669319.084475417</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>21.18375537072436</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,19 +701,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>44.13217237922859</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>44.13217237922859</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +722,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>28.88091821707973</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="3">
@@ -741,22 +741,22 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>21.0507685937734</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>38.12502610536668</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>44.13217237922859</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>44.13217237922859</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
         <v>0.7465913262578567</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -838,10 +838,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>22.0339917726843</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,16 +856,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0.7904504476822691</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>44.13217237922859</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C5" t="n">
-        <v>26.92232807701203</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>58.39471844666272</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -938,16 +938,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -975,28 +975,28 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>44.13217237922859</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>44.13217237922859</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>44.13217237922859</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>38.87161743162454</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
-        <v>0.790450447682262</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1142,19 +1142,19 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>230.8744955960827</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,19 +1175,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>28.88091821707974</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1212,28 +1212,28 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1257,16 +1257,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>38.87161743162454</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -1306,16 +1306,16 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>22.65313100102799</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>44.13217237922859</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J10" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.87161743162455</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
@@ -1433,10 +1433,10 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>44.13217237922859</v>
+        <v>212.285385643442</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="12">
@@ -1494,22 +1494,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>44.13217237922859</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>38.87161743162454</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J13" t="n">
-        <v>19.9316902659215</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1567,13 +1567,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1607,19 +1607,19 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -1649,19 +1649,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>28.88091821707973</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="15">
@@ -1683,31 +1683,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>62.88143347497289</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -1737,19 +1737,19 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
-        <v>38.12502610536669</v>
+        <v>0</v>
       </c>
       <c r="Y15" t="n">
         <v>0</v>
@@ -1783,10 +1783,10 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="J16" t="n">
-        <v>19.9316902659215</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
         <v>22.26949182588285</v>
@@ -1807,10 +1807,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,31 +1841,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F17" t="n">
-        <v>16.93162886246722</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -1938,7 +1938,7 @@
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1968,22 +1968,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>44.13217237922859</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>38.87161743162455</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>44.13217237922859</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4.580549094716531</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2041,7 +2041,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>0.7904504476822691</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2050,19 +2050,19 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,23 +2078,23 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E20" t="n">
+      <c r="G20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F20" t="n">
-        <v>230.2038249569697</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
@@ -2132,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2141,7 +2141,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -2163,19 +2163,19 @@
         <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>126.358590200387</v>
+        <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H21" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>89.39663285141508</v>
@@ -2208,7 +2208,7 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
@@ -2217,13 +2217,13 @@
         <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>0</v>
+        <v>163.852170978353</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -2296,7 +2296,7 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,23 +2315,23 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>212.285385643442</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C23" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,22 +2394,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>106.6874096712025</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H24" t="n">
         <v>0</v>
@@ -2442,13 +2442,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>79.44674520176419</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y24" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2530,10 +2530,10 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2552,73 +2552,73 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
+        <v>241.0142888776591</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>0</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
         <v>212.285385643442</v>
-      </c>
-      <c r="F26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="G26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H26" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
         <v>172.7084989883157</v>
@@ -2640,7 +2640,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2652,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>31.84747338445135</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2679,16 +2679,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>30.58282315618629</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -2697,10 +2697,10 @@
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="28">
@@ -2764,10 +2764,10 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
+        <v>0</v>
+      </c>
+      <c r="U28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="U28" t="n">
-        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -2789,7 +2789,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.2853856434421</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -2804,10 +2804,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2849,16 +2849,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>241.0142888776591</v>
+        <v>212.285385643442</v>
       </c>
     </row>
     <row r="30">
@@ -2871,19 +2871,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C30" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>21.53127153297047</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2922,7 +2922,7 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>153.8375610033827</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
@@ -2934,7 +2934,7 @@
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -3007,7 +3007,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3016,7 +3016,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3035,64 +3035,64 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>210.4758895704059</v>
+      </c>
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>0</v>
+      </c>
+      <c r="P32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
+      <c r="R32" t="n">
+        <v>0</v>
+      </c>
+      <c r="S32" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T32" t="n">
+        <v>0</v>
+      </c>
+      <c r="U32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="F32" t="n">
-        <v>0</v>
-      </c>
-      <c r="G32" t="n">
+      <c r="V32" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H32" t="n">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>9.990699214544804</v>
-      </c>
-      <c r="R32" t="n">
-        <v>0</v>
-      </c>
-      <c r="S32" t="n">
-        <v>0</v>
-      </c>
-      <c r="T32" t="n">
-        <v>0</v>
-      </c>
-      <c r="U32" t="n">
-        <v>0</v>
-      </c>
-      <c r="V32" t="n">
-        <v>0</v>
-      </c>
       <c r="W32" t="n">
-        <v>202.2946864288972</v>
+        <v>33.80371536444981</v>
       </c>
       <c r="X32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D33" t="n">
         <v>0</v>
       </c>
       <c r="E33" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>137.3435171632106</v>
+        <v>83.03189205754171</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3162,13 +3162,13 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>56.69686991152108</v>
+        <v>0</v>
       </c>
       <c r="V33" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
         <v>205.7729852034775</v>
@@ -3190,61 +3190,61 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
+        <v>0</v>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>0</v>
+      </c>
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>0</v>
+      </c>
+      <c r="P34" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
+      <c r="R34" t="n">
+        <v>0</v>
+      </c>
+      <c r="S34" t="n">
+        <v>0</v>
+      </c>
+      <c r="T34" t="n">
+        <v>0</v>
+      </c>
+      <c r="U34" t="n">
+        <v>0</v>
+      </c>
+      <c r="V34" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
-        <v>0</v>
-      </c>
-      <c r="G34" t="n">
-        <v>0</v>
-      </c>
-      <c r="H34" t="n">
-        <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q34" t="n">
-        <v>0</v>
-      </c>
-      <c r="R34" t="n">
-        <v>0</v>
-      </c>
-      <c r="S34" t="n">
-        <v>0</v>
-      </c>
-      <c r="T34" t="n">
-        <v>0</v>
-      </c>
-      <c r="U34" t="n">
-        <v>0</v>
-      </c>
-      <c r="V34" t="n">
-        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,76 +3263,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C35" t="n">
+        <v>212.2853856434421</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>0</v>
+      </c>
+      <c r="U35" t="n">
+        <v>0</v>
+      </c>
+      <c r="V35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D35" t="n">
+      <c r="W35" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="E35" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
-        <v>0</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
-      </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3348,25 +3348,25 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>102.9270600461948</v>
       </c>
       <c r="F36" t="n">
-        <v>56.91690033700354</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3396,22 +3396,22 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U36" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -3478,19 +3478,19 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
+        <v>0</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="n">
+        <v>0</v>
+      </c>
+      <c r="X37" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y37" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V37" t="n">
-        <v>0</v>
-      </c>
-      <c r="W37" t="n">
-        <v>0</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,16 +3500,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3548,28 +3548,28 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>90.38893773807641</v>
       </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>190.3453970742849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3585,16 +3585,16 @@
         <v>0</v>
       </c>
       <c r="D39" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3633,13 +3633,13 @@
         <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>225.9413820809748</v>
+        <v>219.20361554932</v>
       </c>
       <c r="V39" t="n">
-        <v>198.6140283981004</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
@@ -3648,7 +3648,7 @@
         <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3709,22 +3709,22 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
+        <v>0</v>
+      </c>
+      <c r="T40" t="n">
+        <v>0</v>
+      </c>
+      <c r="U40" t="n">
+        <v>0</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="n">
+        <v>0</v>
+      </c>
+      <c r="X40" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="T40" t="n">
-        <v>0</v>
-      </c>
-      <c r="U40" t="n">
-        <v>0</v>
-      </c>
-      <c r="V40" t="n">
-        <v>0</v>
-      </c>
-      <c r="W40" t="n">
-        <v>0</v>
-      </c>
-      <c r="X40" t="n">
-        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,16 +3737,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -3791,10 +3791,10 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -3803,7 +3803,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>230.2038249569697</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3816,10 +3816,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3834,13 +3834,13 @@
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3867,25 +3867,25 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>83.40091804193487</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y42" t="n">
-        <v>205.6826957773044</v>
+        <v>37.06385132060323</v>
       </c>
     </row>
     <row r="43">
@@ -3952,10 +3952,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V43" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3974,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>38.87161743162454</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>62.4162677022923</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -4022,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,19 +4031,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="45">
@@ -4053,25 +4053,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>38.87161743162454</v>
+        <v>152.2207240410305</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4110,13 +4110,13 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4132,13 +4132,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0.790450447682255</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4201,7 +4201,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J2" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K2" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L2" t="n">
-        <v>3.530573790338288</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M2" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N2" t="n">
-        <v>90.91227510121089</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O2" t="n">
-        <v>134.6031257566472</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P2" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>121.8591222504766</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T2" t="n">
-        <v>77.28117035226589</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U2" t="n">
-        <v>32.70321845405519</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="V2" t="n">
-        <v>32.70321845405519</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="W2" t="n">
-        <v>32.70321845405519</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="X2" t="n">
-        <v>32.70321845405519</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y2" t="n">
-        <v>3.530573790338288</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="D3" t="n">
-        <v>176.5286895169144</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E3" t="n">
-        <v>176.5286895169144</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F3" t="n">
-        <v>138.0185621377561</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G3" t="n">
-        <v>93.44061023954541</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H3" t="n">
-        <v>48.8626583413347</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I3" t="n">
-        <v>4.284706443124001</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J3" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>3.530573790338288</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>45.45613755060546</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N3" t="n">
-        <v>89.14698820604177</v>
+        <v>851.8101010141643</v>
       </c>
       <c r="O3" t="n">
-        <v>89.14698820604177</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P3" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>176.5286895169144</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y3" t="n">
-        <v>176.5286895169144</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="C4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="D4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="E4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="F4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="G4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="H4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="I4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="J4" t="n">
-        <v>3.530573790338288</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K4" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L4" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M4" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N4" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O4" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>137.2644294849704</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.68647758675968</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R4" t="n">
-        <v>48.10852568854899</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="S4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="T4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="U4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="V4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="W4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="X4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="Y4" t="n">
-        <v>3.530573790338288</v>
+        <v>64.03213664411894</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>176.5286895169144</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="C5" t="n">
-        <v>149.3344187320537</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="D5" t="n">
-        <v>104.756466833843</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="E5" t="n">
-        <v>104.756466833843</v>
+        <v>90.33569644483418</v>
       </c>
       <c r="F5" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G5" t="n">
-        <v>104.756466833843</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H5" t="n">
-        <v>60.17851493563234</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I5" t="n">
-        <v>15.60056303742164</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J5" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K5" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L5" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M5" t="n">
-        <v>47.22142444577459</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N5" t="n">
-        <v>89.14698820604177</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O5" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P5" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>176.5286895169144</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>176.5286895169144</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="X5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="Y5" t="n">
-        <v>176.5286895169144</v>
+        <v>577.2332497330343</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>176.5286895169144</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D6" t="n">
-        <v>176.5286895169144</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E6" t="n">
-        <v>131.9507376187037</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>87.37278572049297</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>42.79483382228227</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J6" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>47.22142444577459</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
-        <v>47.22142444577459</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N6" t="n">
-        <v>89.14698820604177</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O6" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P6" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y6" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L7" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M7" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N7" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>93.48491238239833</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>48.90696048418764</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>4.329008585976936</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F8" t="n">
-        <v>3.530573790338288</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G8" t="n">
-        <v>3.530573790338288</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H8" t="n">
-        <v>3.530573790338288</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I8" t="n">
-        <v>3.530573790338288</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J8" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K8" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L8" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M8" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N8" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O8" t="n">
-        <v>132.8378388614781</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P8" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R8" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S8" t="n">
-        <v>92.68647758675968</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T8" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y8" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C9" t="n">
-        <v>3.530573790338288</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D9" t="n">
-        <v>3.530573790338288</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E9" t="n">
-        <v>3.530573790338288</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F9" t="n">
-        <v>3.530573790338288</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G9" t="n">
-        <v>3.530573790338288</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H9" t="n">
-        <v>3.530573790338288</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
-        <v>3.530573790338288</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J9" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L9" t="n">
-        <v>47.22142444577459</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M9" t="n">
-        <v>47.22142444577459</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N9" t="n">
-        <v>47.22142444577459</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V9" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X9" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y9" t="n">
-        <v>3.530573790338288</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H10" t="n">
-        <v>115.1809137745201</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>70.60296187630945</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L10" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M10" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N10" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y10" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>92.68647758675968</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D11" t="n">
-        <v>92.68647758675968</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E11" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J11" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K11" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L11" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M11" t="n">
-        <v>132.8378388614781</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N11" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O11" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R11" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W11" t="n">
-        <v>137.2644294849704</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X11" t="n">
-        <v>92.68647758675968</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y11" t="n">
-        <v>92.68647758675968</v>
+        <v>506.1786963984129</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K12" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L12" t="n">
-        <v>45.45613755060546</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>89.14698820604177</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N12" t="n">
-        <v>132.8378388614781</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O12" t="n">
-        <v>132.8378388614781</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P12" t="n">
-        <v>132.8378388614781</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q12" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S12" t="n">
-        <v>131.9507376187037</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T12" t="n">
-        <v>87.37278572049297</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U12" t="n">
-        <v>87.37278572049297</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V12" t="n">
-        <v>42.79483382228227</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y12" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I13" t="n">
-        <v>46.15803044872652</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J13" t="n">
-        <v>26.02500997809875</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K13" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L13" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M13" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N13" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O13" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>135.3139342451479</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q13" t="n">
-        <v>90.73598234693722</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.15803044872652</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C14" t="n">
-        <v>3.530573790338288</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D14" t="n">
-        <v>3.530573790338288</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F14" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J14" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K14" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L14" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M14" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N14" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O14" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P14" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R14" t="n">
-        <v>121.8591222504766</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S14" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T14" t="n">
-        <v>77.28117035226589</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U14" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V14" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W14" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X14" t="n">
-        <v>48.10852568854899</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y14" t="n">
-        <v>48.10852568854899</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.284706443124001</v>
+        <v>900.5405560409666</v>
       </c>
       <c r="C15" t="n">
-        <v>4.284706443124001</v>
+        <v>726.0875267598396</v>
       </c>
       <c r="D15" t="n">
-        <v>4.284706443124001</v>
+        <v>577.1531170985884</v>
       </c>
       <c r="E15" t="n">
-        <v>4.284706443124001</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F15" t="n">
-        <v>4.284706443124001</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G15" t="n">
-        <v>4.284706443124001</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I15" t="n">
-        <v>4.284706443124001</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J15" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L15" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M15" t="n">
-        <v>90.91227510121089</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N15" t="n">
-        <v>132.8378388614781</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O15" t="n">
-        <v>176.5286895169144</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P15" t="n">
-        <v>176.5286895169144</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S15" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T15" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U15" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V15" t="n">
-        <v>87.37278572049297</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W15" t="n">
-        <v>42.79483382228227</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X15" t="n">
-        <v>4.284706443124001</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.284706443124001</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="I16" t="n">
-        <v>46.15803044872652</v>
+        <v>136.0777814360265</v>
       </c>
       <c r="J16" t="n">
-        <v>26.02500997809875</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="K16" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L16" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M16" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N16" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O16" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P16" t="n">
-        <v>135.3139342451479</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>90.73598234693722</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.15803044872652</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>166.4370741486873</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C17" t="n">
-        <v>166.4370741486873</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D17" t="n">
-        <v>166.4370741486873</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E17" t="n">
-        <v>166.4370741486873</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F17" t="n">
-        <v>149.3344187320537</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G17" t="n">
-        <v>104.756466833843</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H17" t="n">
-        <v>60.17851493563234</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I17" t="n">
-        <v>15.60056303742164</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J17" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K17" t="n">
-        <v>47.22142444577459</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L17" t="n">
-        <v>90.91227510121089</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M17" t="n">
-        <v>134.6031257566472</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N17" t="n">
-        <v>176.5286895169144</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O17" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P17" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y17" t="n">
-        <v>166.4370741486873</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J18" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L18" t="n">
-        <v>3.530573790338288</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M18" t="n">
-        <v>45.45613755060546</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N18" t="n">
-        <v>89.14698820604177</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O18" t="n">
-        <v>132.8378388614781</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P18" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q18" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>131.9507376187037</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S18" t="n">
-        <v>92.68647758675968</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T18" t="n">
-        <v>48.10852568854899</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U18" t="n">
-        <v>48.10852568854899</v>
+        <v>259.0600686093459</v>
       </c>
       <c r="V18" t="n">
-        <v>48.10852568854899</v>
+        <v>23.90796037760316</v>
       </c>
       <c r="W18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y18" t="n">
-        <v>48.10852568854899</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L19" t="n">
-        <v>30.84469879805127</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M19" t="n">
-        <v>70.03273699027345</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N19" t="n">
-        <v>113.7235876457098</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O19" t="n">
-        <v>138.062864280609</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R19" t="n">
-        <v>137.2644294849704</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>92.68647758675968</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T19" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U19" t="n">
-        <v>48.10852568854899</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V19" t="n">
-        <v>3.530573790338288</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y19" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="20">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C20" t="n">
-        <v>738.7078125165641</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D20" t="n">
-        <v>495.259035872464</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E20" t="n">
-        <v>251.810259228364</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F20" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G20" t="n">
         <v>19.28114311021272</v>
@@ -5780,22 +5780,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V20" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W20" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X20" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y20" t="n">
-        <v>738.7078125165641</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="21">
@@ -5805,22 +5805,22 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>795.8418184905681</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C21" t="n">
-        <v>795.8418184905681</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D21" t="n">
-        <v>668.2068788942177</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E21" t="n">
-        <v>508.9694238887622</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F21" t="n">
-        <v>362.4348659156472</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G21" t="n">
-        <v>223.7040404982626</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H21" t="n">
         <v>110.334904905842</v>
@@ -5832,22 +5832,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L21" t="n">
-        <v>304.2053859195205</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M21" t="n">
-        <v>542.809531908403</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N21" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O21" t="n">
-        <v>781.4136778972854</v>
+        <v>860.4511411346975</v>
       </c>
       <c r="P21" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q21" t="n">
         <v>964.0571555106362</v>
@@ -5856,25 +5856,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U21" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V21" t="n">
-        <v>964.0571555106362</v>
+        <v>625.1325675488273</v>
       </c>
       <c r="W21" t="n">
-        <v>964.0571555106362</v>
+        <v>625.1325675488273</v>
       </c>
       <c r="X21" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2810673432945</v>
       </c>
       <c r="Y21" t="n">
-        <v>964.0571555106362</v>
+        <v>417.2810673432945</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L22" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M22" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N22" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q22" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U22" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y22" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="23">
@@ -5963,7 +5963,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C23" t="n">
         <v>506.1786963984129</v>
@@ -5972,10 +5972,10 @@
         <v>262.7299197543128</v>
       </c>
       <c r="E23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F23" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G23" t="n">
         <v>19.28114311021272</v>
@@ -6023,16 +6023,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="W23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="X23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y23" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="24">
@@ -6042,19 +6042,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>158.0119685275972</v>
+        <v>648.4405950311615</v>
       </c>
       <c r="C24" t="n">
-        <v>158.0119685275972</v>
+        <v>473.9875657500345</v>
       </c>
       <c r="D24" t="n">
-        <v>158.0119685275972</v>
+        <v>325.0531560887832</v>
       </c>
       <c r="E24" t="n">
-        <v>158.0119685275972</v>
+        <v>165.8157010833278</v>
       </c>
       <c r="F24" t="n">
-        <v>158.0119685275972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G24" t="n">
         <v>19.28114311021272</v>
@@ -6072,46 +6072,46 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2442489785619</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N24" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O24" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P24" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R24" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S24" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>609.2210439366512</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U24" t="n">
-        <v>609.2210439366512</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V24" t="n">
-        <v>609.2210439366512</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W24" t="n">
-        <v>365.7722672925511</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X24" t="n">
-        <v>365.7722672925511</v>
+        <v>756.2056553051034</v>
       </c>
       <c r="Y24" t="n">
-        <v>158.0119685275972</v>
+        <v>756.2056553051034</v>
       </c>
     </row>
     <row r="25">
@@ -6178,7 +6178,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U25" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V25" t="n">
         <v>19.28114311021272</v>
@@ -6200,22 +6200,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D26" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E26" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H26" t="n">
         <v>19.28114311021272</v>
@@ -6266,10 +6266,10 @@
         <v>964.0571555106362</v>
       </c>
       <c r="X26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="Y26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="27">
@@ -6279,76 +6279,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>193.7341723913397</v>
+        <v>385.8949250843803</v>
       </c>
       <c r="C27" t="n">
-        <v>19.28114311021272</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="D27" t="n">
-        <v>19.28114311021272</v>
+        <v>211.4418958032533</v>
       </c>
       <c r="E27" t="n">
-        <v>19.28114311021272</v>
+        <v>52.20444079779779</v>
       </c>
       <c r="F27" t="n">
-        <v>19.28114311021272</v>
+        <v>52.20444079779779</v>
       </c>
       <c r="G27" t="n">
-        <v>19.28114311021272</v>
+        <v>52.20444079779779</v>
       </c>
       <c r="H27" t="n">
-        <v>19.28114311021272</v>
+        <v>52.20444079779779</v>
       </c>
       <c r="I27" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L27" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M27" t="n">
-        <v>613.2059550252818</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N27" t="n">
-        <v>851.8101010141643</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="O27" t="n">
-        <v>964.0571555106362</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="P27" t="n">
-        <v>964.0571555106362</v>
+        <v>909.0960185696777</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R27" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S27" t="n">
-        <v>831.9958855017176</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>629.8092908604835</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U27" t="n">
-        <v>401.5856725968725</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V27" t="n">
-        <v>401.5856725968725</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W27" t="n">
-        <v>401.5856725968725</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X27" t="n">
-        <v>193.7341723913397</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y27" t="n">
-        <v>193.7341723913397</v>
+        <v>554.1102621044483</v>
       </c>
     </row>
     <row r="28">
@@ -6412,7 +6412,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
         <v>19.28114311021272</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="C29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F29" t="n">
-        <v>19.28114311021272</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G29" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H29" t="n">
         <v>19.28114311021272</v>
@@ -6497,16 +6497,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V29" t="n">
-        <v>720.6083788665362</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W29" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X29" t="n">
-        <v>477.1596022224361</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y29" t="n">
-        <v>233.7108255783361</v>
+        <v>749.627473042513</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6516,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>521.2549444941228</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="C30" t="n">
-        <v>346.8019152129958</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="D30" t="n">
-        <v>325.0531560887832</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="E30" t="n">
-        <v>165.8157010833278</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="F30" t="n">
-        <v>19.28114311021272</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6549,7 +6549,7 @@
         <v>304.2053859195205</v>
       </c>
       <c r="M30" t="n">
-        <v>304.2053859195205</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6570,22 +6570,22 @@
         <v>689.4702815141908</v>
       </c>
       <c r="T30" t="n">
-        <v>689.4702815141908</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="U30" t="n">
-        <v>689.4702815141908</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="V30" t="n">
-        <v>689.4702815141908</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="W30" t="n">
-        <v>689.4702815141908</v>
+        <v>534.0788057531981</v>
       </c>
       <c r="X30" t="n">
-        <v>689.4702815141908</v>
+        <v>326.2273055476653</v>
       </c>
       <c r="Y30" t="n">
-        <v>689.4702815141908</v>
+        <v>326.2273055476653</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L31" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M31" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N31" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U31" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X31" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y31" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="C32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="D32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="E32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="F32" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H32" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6719,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R32" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T32" t="n">
-        <v>953.9655401424092</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="U32" t="n">
-        <v>953.9655401424092</v>
+        <v>509.4769954460863</v>
       </c>
       <c r="V32" t="n">
-        <v>953.9655401424092</v>
+        <v>266.0282188019862</v>
       </c>
       <c r="W32" t="n">
-        <v>749.627473042513</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="X32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="Y32" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>463.7839815061678</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="C33" t="n">
-        <v>463.7839815061678</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="D33" t="n">
-        <v>463.7839815061678</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="E33" t="n">
-        <v>304.5465265007123</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="F33" t="n">
-        <v>158.0119685275972</v>
+        <v>103.1517411481337</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6783,19 +6783,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L33" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>383.2428491569326</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N33" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O33" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P33" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6810,19 +6810,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U33" t="n">
-        <v>906.7875899434432</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V33" t="n">
-        <v>671.6354817117005</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W33" t="n">
-        <v>671.6354817117005</v>
+        <v>485.4562706347935</v>
       </c>
       <c r="X33" t="n">
-        <v>463.7839815061678</v>
+        <v>277.6047704292607</v>
       </c>
       <c r="Y33" t="n">
-        <v>463.7839815061678</v>
+        <v>277.6047704292607</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K34" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L34" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M34" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N34" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U34" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y34" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="35">
@@ -6911,13 +6911,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>749.627473042513</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="C35" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D35" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E35" t="n">
         <v>19.28114311021272</v>
@@ -6971,16 +6971,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="V35" t="n">
-        <v>964.0571555106362</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="X35" t="n">
-        <v>964.0571555106362</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="Y35" t="n">
-        <v>749.627473042513</v>
+        <v>477.1596022224361</v>
       </c>
     </row>
     <row r="36">
@@ -6990,28 +6990,28 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>76.77296163243852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="C36" t="n">
-        <v>76.77296163243852</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="D36" t="n">
-        <v>76.77296163243852</v>
+        <v>612.9361512081509</v>
       </c>
       <c r="E36" t="n">
-        <v>76.77296163243852</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F36" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G36" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H36" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I36" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
@@ -7023,16 +7023,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M36" t="n">
-        <v>374.6018090363993</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N36" t="n">
-        <v>542.809531908403</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O36" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P36" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
@@ -7044,22 +7044,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T36" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U36" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V36" t="n">
-        <v>735.8335372470253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W36" t="n">
-        <v>492.3847606029253</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="X36" t="n">
-        <v>284.5332603973924</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="Y36" t="n">
-        <v>76.77296163243852</v>
+        <v>761.8705608694022</v>
       </c>
     </row>
     <row r="37">
@@ -7126,16 +7126,16 @@
         <v>964.0571555106362</v>
       </c>
       <c r="U37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X37" t="n">
-        <v>829.5248650203655</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7148,13 +7148,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="C38" t="n">
-        <v>518.2486856454962</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="D38" t="n">
-        <v>274.7999090013961</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E38" t="n">
         <v>31.35113235729608</v>
@@ -7196,28 +7196,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R38" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S38" t="n">
-        <v>953.9655401424092</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U38" t="n">
-        <v>953.9655401424092</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V38" t="n">
-        <v>953.9655401424092</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W38" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="X38" t="n">
-        <v>953.9655401424092</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="Y38" t="n">
-        <v>761.6974622895962</v>
+        <v>31.35113235729608</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7227,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>327.4530077769195</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="C39" t="n">
-        <v>327.4530077769195</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="D39" t="n">
-        <v>178.5185981156682</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="E39" t="n">
-        <v>19.28114311021272</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="F39" t="n">
-        <v>19.28114311021272</v>
+        <v>158.7661011803829</v>
       </c>
       <c r="G39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="H39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I39" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,19 +7257,19 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>374.6018090363993</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="M39" t="n">
-        <v>374.6018090363993</v>
+        <v>383.2428491569326</v>
       </c>
       <c r="N39" t="n">
-        <v>542.809531908403</v>
+        <v>621.8469951458151</v>
       </c>
       <c r="O39" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P39" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
@@ -7281,22 +7281,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T39" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U39" t="n">
-        <v>735.8335372470253</v>
+        <v>540.4527673852406</v>
       </c>
       <c r="V39" t="n">
-        <v>535.2133065418734</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="W39" t="n">
-        <v>535.2133065418734</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="X39" t="n">
-        <v>535.2133065418734</v>
+        <v>305.3006591534979</v>
       </c>
       <c r="Y39" t="n">
-        <v>327.4530077769195</v>
+        <v>305.3006591534979</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L40" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M40" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N40" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R40" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W40" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y40" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="41">
@@ -7385,13 +7385,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>19.28114311021272</v>
+        <v>477.1596022224361</v>
       </c>
       <c r="C41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="D41" t="n">
-        <v>19.28114311021272</v>
+        <v>233.7108255783361</v>
       </c>
       <c r="E41" t="n">
         <v>19.28114311021272</v>
@@ -7439,22 +7439,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T41" t="n">
-        <v>738.7078125165641</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U41" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V41" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W41" t="n">
-        <v>495.259035872464</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X41" t="n">
-        <v>262.7299197543128</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y41" t="n">
-        <v>19.28114311021272</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7464,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>20.03527576299844</v>
+        <v>307.1033079837604</v>
       </c>
       <c r="C42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="D42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="E42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="F42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G42" t="n">
-        <v>20.03527576299844</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I42" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J42" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L42" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M42" t="n">
-        <v>473.4149733950735</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N42" t="n">
-        <v>712.019119383956</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O42" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P42" t="n">
         <v>894.6625969973069</v>
@@ -7515,25 +7515,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T42" t="n">
-        <v>706.3964594037951</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U42" t="n">
-        <v>706.3964594037951</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V42" t="n">
-        <v>471.2443511720524</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W42" t="n">
-        <v>227.7955745279523</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X42" t="n">
-        <v>227.7955745279523</v>
+        <v>512.7568786610034</v>
       </c>
       <c r="Y42" t="n">
-        <v>20.03527576299844</v>
+        <v>475.3186450038284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L43" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M43" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N43" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T43" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y43" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>3.530573790338288</v>
+        <v>325.7766548071333</v>
       </c>
       <c r="C44" t="n">
-        <v>3.530573790338288</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J44" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K44" t="n">
-        <v>3.530573790338288</v>
+        <v>122.2961490211351</v>
       </c>
       <c r="L44" t="n">
-        <v>47.22142444577459</v>
+        <v>302.3720006057937</v>
       </c>
       <c r="M44" t="n">
-        <v>90.91227510121089</v>
+        <v>519.3476278686978</v>
       </c>
       <c r="N44" t="n">
-        <v>132.8378388614781</v>
+        <v>725.2021500759372</v>
       </c>
       <c r="O44" t="n">
-        <v>176.5286895169144</v>
+        <v>874.3971002185853</v>
       </c>
       <c r="P44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R44" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S44" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T44" t="n">
-        <v>176.5286895169144</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="U44" t="n">
-        <v>131.9507376187037</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="V44" t="n">
-        <v>131.9507376187037</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="W44" t="n">
-        <v>87.37278572049297</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="X44" t="n">
-        <v>42.79483382228227</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="Y44" t="n">
-        <v>42.79483382228227</v>
+        <v>569.2254314512334</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7701,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>42.79483382228227</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C45" t="n">
-        <v>42.79483382228227</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D45" t="n">
-        <v>42.79483382228227</v>
+        <v>571.6739692052849</v>
       </c>
       <c r="E45" t="n">
-        <v>3.530573790338288</v>
+        <v>417.9156620931329</v>
       </c>
       <c r="F45" t="n">
-        <v>3.530573790338288</v>
+        <v>271.3811041200179</v>
       </c>
       <c r="G45" t="n">
-        <v>3.530573790338288</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="H45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J45" t="n">
-        <v>3.530573790338288</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>47.22142444577459</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L45" t="n">
-        <v>47.22142444577459</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M45" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N45" t="n">
-        <v>47.22142444577459</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="O45" t="n">
-        <v>89.14698820604177</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P45" t="n">
-        <v>132.8378388614781</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T45" t="n">
-        <v>176.5286895169144</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V45" t="n">
-        <v>131.9507376187037</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W45" t="n">
-        <v>87.37278572049297</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X45" t="n">
-        <v>87.37278572049297</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y45" t="n">
-        <v>87.37278572049297</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.37278572049297</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C46" t="n">
-        <v>42.79483382228227</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K46" t="n">
-        <v>41.99639902664363</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L46" t="n">
-        <v>69.3105240343566</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M46" t="n">
-        <v>108.4985622265788</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N46" t="n">
-        <v>152.1894128820151</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T46" t="n">
-        <v>176.5286895169144</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V46" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W46" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X46" t="n">
-        <v>176.5286895169144</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y46" t="n">
-        <v>131.9507376187037</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
   </sheetData>
@@ -7979,22 +7979,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M2" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N2" t="n">
-        <v>273.5452359758195</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O2" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P2" t="n">
-        <v>273.5820500585697</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q2" t="n">
         <v>212.3149906599047</v>
@@ -8058,25 +8058,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>142.5962444444444</v>
+        <v>185.8815939223662</v>
       </c>
       <c r="P3" t="n">
-        <v>178.1065797935588</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8216,22 +8216,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K5" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L5" t="n">
-        <v>235.7664149699872</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M5" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N5" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O5" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P5" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
         <v>212.3149906599047</v>
@@ -8295,25 +8295,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O6" t="n">
-        <v>186.728416823673</v>
+        <v>369.031319612638</v>
       </c>
       <c r="P6" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8453,22 +8453,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504505</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N8" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O8" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P8" t="n">
-        <v>275.3651681344982</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,25 +8532,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>181.9736113535876</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
-        <v>142.1340339220183</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O9" t="n">
-        <v>184.9452987477446</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P9" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8690,22 +8690,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M11" t="n">
-        <v>272.6952875305729</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>229.4130635965909</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O11" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P11" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
         <v>212.3149906599047</v>
@@ -8769,25 +8769,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>180.9034340831744</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>186.2662063012469</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N12" t="n">
-        <v>175.4738844625619</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>184.1139464652501</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -8927,22 +8927,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N14" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9006,25 +9006,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>186.2662063012469</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N15" t="n">
-        <v>173.6907663866335</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
-        <v>186.728416823673</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9164,22 +9164,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>264.2220234242092</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L17" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>230.0982114216867</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9243,25 +9243,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>184.4830882253185</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N18" t="n">
-        <v>175.4738844625619</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>186.728416823673</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P18" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9480,25 +9480,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>318.4627686399372</v>
+        <v>168.5314335381781</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>197.6503338623806</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9735,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,25 +9954,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O27" t="n">
-        <v>255.9771075721939</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>195.4980740263837</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10197,10 +10197,10 @@
         <v>299.7328472056018</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N30" t="n">
-        <v>372.3560009609923</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10431,13 +10431,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N33" t="n">
-        <v>292.5201795090609</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
         <v>383.6105333221035</v>
@@ -10446,7 +10446,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10671,19 +10671,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N36" t="n">
-        <v>301.248502863135</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>383.6105333221035</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10905,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N39" t="n">
-        <v>301.248502863135</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>383.6105333221035</v>
+        <v>233.6791982203443</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11060,7 +11060,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>417.6612145504504</v>
@@ -11139,22 +11139,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>241.9453110519923</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N42" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P42" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,22 +11297,22 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>220.0898510449805</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>279.8985873492159</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M44" t="n">
-        <v>274.4784056065013</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>271.7621178998911</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>274.2303838009153</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>231.2329957552695</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>181.9736113535876</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
         <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>184.9452987477446</v>
+        <v>242.4075215744184</v>
       </c>
       <c r="P45" t="n">
-        <v>178.1065797935588</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>184.1139464652501</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>361.5500862927562</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22589,19 +22589,19 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8878972070167</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>178.9636771849028</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -22610,10 +22610,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>357.3570204389738</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="3">
@@ -22629,22 +22629,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>126.3942969708654</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>106.9441862880172</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>68.10327185726787</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45.26446047218649</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22671,10 +22671,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22726,10 +22726,10 @@
         <v>155.4504749272583</v>
       </c>
       <c r="J4" t="n">
-        <v>93.35918011667277</v>
+        <v>71.32518834398849</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,16 +22744,16 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1.930990287424243</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>42.02987087246579</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T4" t="n">
         <v>227.9455894282815</v>
@@ -22781,28 +22781,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C5" t="n">
-        <v>338.3505636939955</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>310.5508692414544</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>348.4813272950487</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22826,16 +22826,16 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22863,28 +22863,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>113.5129080761724</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>100.9370400141553</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>93.21134478398204</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>73.36382680487192</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -22987,16 +22987,16 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R7" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>183.8134170490529</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
-        <v>285.5285789088086</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23030,19 +23030,19 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>176.0015501456288</v>
       </c>
       <c r="G8" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23063,19 +23063,19 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>180.1391513691656</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>178.9636771849028</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -23100,28 +23100,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23145,16 +23145,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>56.02566177341454</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>127.5509987246092</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>187.0697646493503</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -23194,16 +23194,16 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>139.5740415064116</v>
+        <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>111.3183025480297</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J10" t="n">
-        <v>49.22700773744418</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -23255,19 +23255,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>337.7981976930332</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>362.7438733624829</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>415.302737515135</v>
@@ -23306,7 +23306,7 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S11" t="n">
-        <v>170.1484521546208</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T11" t="n">
         <v>223.0958495641314</v>
@@ -23321,10 +23321,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>325.5989282992405</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="12">
@@ -23382,22 +23382,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>188.6684147701967</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>212.8233657292951</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,13 +23434,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J13" t="n">
-        <v>73.42748985075127</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23455,13 +23455,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23495,19 +23495,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>321.1407193917789</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
         <v>339.4748021157671</v>
@@ -23537,19 +23537,19 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
-        <v>105.7369455619211</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8878972070167</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T14" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U14" t="n">
-        <v>222.4647346907568</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -23561,7 +23561,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="15">
@@ -23571,31 +23571,31 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>166.5331836498673</v>
+        <v>103.6517501748945</v>
       </c>
       <c r="C15" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -23625,19 +23625,19 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T15" t="n">
-        <v>156.032556315593</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U15" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V15" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W15" t="n">
-        <v>207.562810781691</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X15" t="n">
-        <v>167.6479590981108</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
         <v>205.6826957773044</v>
@@ -23671,10 +23671,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>155.4504749272583</v>
+        <v>140.6136200195524</v>
       </c>
       <c r="J16" t="n">
-        <v>73.42748985075127</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23695,10 +23695,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>42.02987087246579</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>133.1612189979409</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,31 +23729,31 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F17" t="n">
-        <v>389.9444168792442</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>371.1705651359065</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H17" t="n">
-        <v>295.3426297365386</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I17" t="n">
-        <v>166.3437171911773</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23774,7 +23774,7 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R17" t="n">
         <v>149.8691179411497</v>
@@ -23826,7 +23826,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>68.10327185726787</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
         <v>89.39663285141508</v>
@@ -23856,22 +23856,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>56.02566177341454</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>132.8115536722133</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>156.032556315593</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>251.6949831609196</v>
+        <v>247.1144340662031</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23929,7 +23929,7 @@
         <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.930990287424243</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q19" t="n">
         <v>86.16204325169439</v>
@@ -23938,19 +23938,19 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>179.8844256577437</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T19" t="n">
-        <v>183.8134170490529</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U19" t="n">
         <v>286.3190293564909</v>
       </c>
       <c r="V19" t="n">
-        <v>208.0054709445994</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,22 +23966,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>176.6722207847417</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G20" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H20" t="n">
         <v>339.4748021157671</v>
@@ -24020,7 +24020,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U20" t="n">
         <v>251.3456529078365</v>
@@ -24029,7 +24029,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>136.955583073971</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -24051,19 +24051,19 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D21" t="n">
-        <v>21.08647536425178</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -24096,7 +24096,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
@@ -24105,13 +24105,13 @@
         <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>232.8005871494253</v>
+        <v>68.94841617107224</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24172,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>177.2933913771695</v>
+        <v>44.10642379180146</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24184,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,22 +24203,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>170.4484560200386</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C23" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>113.6687527430239</v>
       </c>
       <c r="E23" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
@@ -24263,7 +24263,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>115.4668728266929</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,22 +24282,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>166.5331836498673</v>
+        <v>59.84577397866485</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H24" t="n">
         <v>112.2354442364965</v>
@@ -24330,13 +24330,13 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>120.7179834930574</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
         <v>225.9413820809748</v>
@@ -24345,13 +24345,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W24" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X24" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="25">
@@ -24418,10 +24418,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U25" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V25" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W25" t="n">
         <v>286.522998336591</v>
@@ -24440,25 +24440,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>169.6449844288198</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F26" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H26" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I26" t="n">
         <v>210.4758895704059</v>
@@ -24506,7 +24506,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>369.731100678469</v>
+        <v>157.445715035027</v>
       </c>
       <c r="Y26" t="n">
         <v>386.2379386560536</v>
@@ -24519,7 +24519,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24528,7 +24528,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24540,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>89.39663285141508</v>
+        <v>57.54915946696373</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24567,16 +24567,16 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S27" t="n">
-        <v>141.1003479476515</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
         <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
         <v>232.8005871494253</v>
@@ -24585,10 +24585,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -24652,10 +24652,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T28" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -24677,7 +24677,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>170.4484560200385</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
@@ -24692,10 +24692,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H29" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I29" t="n">
         <v>210.4758895704059</v>
@@ -24737,16 +24737,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V29" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>145.2236497783945</v>
+        <v>173.9525530126116</v>
       </c>
     </row>
     <row r="30">
@@ -24759,19 +24759,19 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>125.9137940316683</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24810,7 +24810,7 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>200.1647286948216</v>
+        <v>46.32716769143889</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
@@ -24822,7 +24822,7 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24895,7 +24895,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24904,7 +24904,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -24923,19 +24923,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,28 +24959,28 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W32" t="n">
-        <v>146.9462822885158</v>
+        <v>315.4372533529632</v>
       </c>
       <c r="X32" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -24996,19 +24996,19 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C33" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>54.31162510566892</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25050,13 +25050,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
-        <v>169.2445121694537</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
         <v>0</v>
@@ -25078,7 +25078,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>15.42850543284436</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25132,7 +25132,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,16 +25151,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C35" t="n">
-        <v>124.2586028933485</v>
+        <v>152.9875061275654</v>
       </c>
       <c r="D35" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -25211,16 +25211,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25236,25 +25236,25 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>157.6450804554009</v>
+        <v>54.71802040920612</v>
       </c>
       <c r="F36" t="n">
-        <v>88.15231205638034</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25284,22 +25284,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V36" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W36" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="37">
@@ -25366,7 +25366,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U37" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -25378,7 +25378,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>85.3976857667268</v>
       </c>
     </row>
     <row r="38">
@@ -25388,16 +25388,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
         <v>406.8760457417114</v>
@@ -25436,28 +25436,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W38" t="n">
-        <v>349.240968717413</v>
+        <v>258.8520309793366</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>195.8925415817687</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25473,16 +25473,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
@@ -25491,7 +25491,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25521,13 +25521,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T39" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>6.737766531654842</v>
       </c>
       <c r="V39" t="n">
-        <v>34.18655875132487</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
@@ -25536,7 +25536,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="40">
@@ -25597,7 +25597,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S40" t="n">
-        <v>90.82963045160423</v>
+        <v>224.0165980369723</v>
       </c>
       <c r="T40" t="n">
         <v>227.9455894282815</v>
@@ -25612,7 +25612,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>92.52268780366916</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25625,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>381.9303700722618</v>
+        <v>169.6449844288197</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25679,10 +25679,10 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U41" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -25691,7 +25691,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>139.5272757214993</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25704,10 +25704,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25722,13 +25722,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H42" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25755,25 +25755,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
-        <v>116.7638106528867</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U42" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W42" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>168.6188444567011</v>
       </c>
     </row>
     <row r="43">
@@ -25840,10 +25840,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V43" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25862,13 +25862,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>343.862224231856</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>302.8566240687152</v>
       </c>
       <c r="D44" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -25910,7 +25910,7 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>209.0200695862453</v>
@@ -25919,19 +25919,19 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U44" t="n">
-        <v>207.2134805286079</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>305.1087963381844</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>325.5989282992405</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="45">
@@ -25941,25 +25941,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>122.4010112706387</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C45" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D45" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>118.7734630237764</v>
+        <v>5.424356414370465</v>
       </c>
       <c r="F45" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>89.39663285141508</v>
@@ -25998,13 +25998,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U45" t="n">
-        <v>181.8092097017462</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V45" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W45" t="n">
-        <v>207.562810781691</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X45" t="n">
         <v>205.7729852034775</v>
@@ -26020,13 +26020,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>135.6998078027087</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>123.1146487193992</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>147.8250225705301</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -26077,7 +26077,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26089,7 +26089,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>174.4524809728662</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>352705.8232328701</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>352705.8232328701</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>352705.82323287</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>352705.8232328698</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
   </sheetData>
@@ -26311,28 +26311,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>77709.45347827916</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="D2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
       <c r="F2" t="n">
-        <v>77709.4534782792</v>
+        <v>108004.437145366</v>
       </c>
       <c r="G2" t="n">
-        <v>77709.45347827917</v>
+        <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="I2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="J2" t="n">
         <v>108004.437145366</v>
@@ -26341,19 +26341,19 @@
         <v>108004.437145366</v>
       </c>
       <c r="L2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="M2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
       </c>
       <c r="P2" t="n">
-        <v>77709.45347827919</v>
+        <v>108004.437145366</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>14789.70600424422</v>
+        <v>80769.43153154774</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26381,13 +26381,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>53120.56697032503</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>11546.91810999089</v>
+        <v>63059.94259910623</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="C4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="D4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="E4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="F4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="G4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="H4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="I4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="J4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="K4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="L4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="M4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="N4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="O4" t="n">
-        <v>19775.08488543298</v>
+        <v>16914.68964098084</v>
       </c>
       <c r="P4" t="n">
-        <v>14064.22462046147</v>
+        <v>16914.68964098084</v>
       </c>
     </row>
     <row r="5">
@@ -26467,22 +26467,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="C5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="D5" t="n">
-        <v>36310.8360806571</v>
+        <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="F5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="G5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
       <c r="H5" t="n">
         <v>14653.66876376167</v>
@@ -26509,7 +26509,7 @@
         <v>14653.66876376167</v>
       </c>
       <c r="P5" t="n">
-        <v>2683.236080657098</v>
+        <v>14653.66876376167</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>12544.68677291636</v>
+        <v>-37960.95279092419</v>
       </c>
       <c r="C6" t="n">
-        <v>27334.39277716061</v>
+        <v>42808.47874062353</v>
       </c>
       <c r="D6" t="n">
-        <v>27334.39277716062</v>
+        <v>42808.47874062356</v>
       </c>
       <c r="E6" t="n">
-        <v>60961.99277716062</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="F6" t="n">
-        <v>60961.99277716064</v>
+        <v>76436.07874062352</v>
       </c>
       <c r="G6" t="n">
-        <v>60961.99277716061</v>
+        <v>76436.0787406235</v>
       </c>
       <c r="H6" t="n">
-        <v>20455.11652584636</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="I6" t="n">
-        <v>73575.68349617138</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="J6" t="n">
-        <v>62028.7653861805</v>
+        <v>13376.13614151729</v>
       </c>
       <c r="K6" t="n">
-        <v>73575.68349617138</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="L6" t="n">
-        <v>73575.68349617142</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="M6" t="n">
-        <v>73575.68349617136</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="N6" t="n">
-        <v>73575.68349617139</v>
+        <v>76436.07874062355</v>
       </c>
       <c r="O6" t="n">
-        <v>73575.68349617139</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="P6" t="n">
-        <v>60961.99277716062</v>
+        <v>76436.07874062349</v>
       </c>
     </row>
   </sheetData>
@@ -26787,22 +26787,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H4" t="n">
         <v>241.0142888776591</v>
@@ -26829,7 +26829,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="P4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27027,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27273,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>196.8821164984305</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,22 +34699,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N2" t="n">
-        <v>44.13217237922859</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P2" t="n">
-        <v>42.34905430330016</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N3" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="P3" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,22 +34936,22 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N5" t="n">
-        <v>42.34905430330018</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>42.34905430330018</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>44.13217237922859</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="P6" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,22 +35173,22 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L8" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N8" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P8" t="n">
-        <v>44.13217237922859</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,25 +35252,25 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O9" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P9" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,22 +35410,22 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L11" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>42.34905430330019</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O11" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -35489,25 +35489,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L12" t="n">
-        <v>42.34905430330018</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
-        <v>44.13217237922859</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q12" t="n">
-        <v>44.13217237922859</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35647,22 +35647,22 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L14" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N14" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -35726,25 +35726,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>44.13217237922859</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N15" t="n">
-        <v>42.34905430330019</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>44.13217237922859</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L17" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M17" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>42.34905430330016</v>
+        <v>207.9338608153933</v>
       </c>
       <c r="O17" t="n">
-        <v>0</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35963,25 +35963,25 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>42.34905430330018</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N18" t="n">
-        <v>44.13217237922859</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>44.13217237922859</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36200,25 +36200,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L21" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>184.4883612256069</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36440,10 +36440,10 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>55.51629994036225</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36455,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M27" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O27" t="n">
-        <v>113.3808631277494</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>55.51629994036219</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36917,10 +36917,10 @@
         <v>161.1784674257276</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37151,13 +37151,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N33" t="n">
-        <v>161.1784674257276</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>241.0142888776591</v>
@@ -37166,7 +37166,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37391,19 +37391,19 @@
         <v>232.285965523585</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N36" t="n">
-        <v>169.9067907798017</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37625,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N39" t="n">
-        <v>169.9067907798017</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>241.0142888776591</v>
+        <v>91.0829537758999</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,22 +37859,22 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N42" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P42" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>70.09551364982758</v>
@@ -38017,22 +38017,22 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>104.0555615261842</v>
       </c>
       <c r="L44" t="n">
-        <v>44.13217237922859</v>
+        <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>44.13217237922859</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N44" t="n">
-        <v>42.34905430330019</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O44" t="n">
-        <v>44.13217237922859</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>90.5657124162131</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -38096,25 +38096,25 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>44.13217237922859</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>42.34905430330018</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="P45" t="n">
-        <v>44.13217237922859</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.13217237922859</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_13.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/750000/Output_2_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>437339.8706939355</v>
+        <v>439044.6267082024</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925399.3994514379</v>
+        <v>925399.399451438</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18327015.93006066</v>
+        <v>18327015.93006067</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5669319.084475417</v>
+        <v>5669319.084475419</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.18375537072436</v>
+        <v>52.42556848774763</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -701,28 +703,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>241.0142888776591</v>
@@ -735,31 +737,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>21.0507685937734</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -783,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -801,10 +803,10 @@
         <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>85.31372784089217</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -835,13 +837,13 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J4" t="n">
-        <v>22.0339917726843</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K4" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -856,10 +858,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -893,31 +895,31 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>58.39471844666272</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>19.72793538656374</v>
       </c>
       <c r="T5" t="n">
         <v>223.0958495641314</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -975,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
@@ -990,7 +992,7 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>84.97365353379641</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -1072,10 +1074,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1105,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1130,31 +1132,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>212.285385643442</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F8" t="n">
-        <v>230.8744955960827</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,31 +1211,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>145.4467082856156</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1272,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>184.6308886574542</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>133.186967585368</v>
+        <v>39.82778746869526</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1367,76 +1369,76 @@
         </is>
       </c>
       <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R11" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S11" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T11" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U11" t="n">
+        <v>0</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>0</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
-      </c>
-      <c r="L11" t="n">
-        <v>0</v>
-      </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q11" t="n">
-        <v>0</v>
-      </c>
-      <c r="R11" t="n">
-        <v>0</v>
-      </c>
-      <c r="S11" t="n">
-        <v>0</v>
-      </c>
-      <c r="T11" t="n">
-        <v>0</v>
-      </c>
-      <c r="U11" t="n">
-        <v>0</v>
-      </c>
-      <c r="V11" t="n">
-        <v>0</v>
-      </c>
-      <c r="W11" t="n">
-        <v>0</v>
-      </c>
       <c r="X11" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1449,28 +1451,28 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1494,22 +1496,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X12" t="n">
         <v>0</v>
@@ -1546,7 +1548,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1567,13 +1569,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -1610,25 +1612,25 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>220.8837963815379</v>
       </c>
       <c r="G14" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -1649,7 +1651,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -1673,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.88143347497289</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1698,7 +1700,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
         <v>112.2354442364965</v>
@@ -1752,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>200.2249506381835</v>
       </c>
     </row>
     <row r="16">
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1807,10 +1809,10 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>44.30348359856715</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -1841,67 +1843,67 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R17" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S17" t="n">
+        <v>70.34400780127524</v>
+      </c>
+      <c r="T17" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U17" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D17" t="n">
+      <c r="V17" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="E17" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>0</v>
-      </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1923,28 +1925,28 @@
         <v>0</v>
       </c>
       <c r="C18" t="n">
-        <v>0</v>
+        <v>145.4467082856156</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1968,22 +1970,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>4.580549094716531</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2050,7 +2052,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2062,7 +2064,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>21.18375537072436</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T20" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U20" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="n">
+        <v>0</v>
+      </c>
+      <c r="X20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y20" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="G20" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>0</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
-      <c r="W20" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="X20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2159,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>137.3435171632106</v>
@@ -2178,10 +2180,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2208,22 +2210,22 @@
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V21" t="n">
-        <v>163.852170978353</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>205.7729852034775</v>
+        <v>194.1735534894246</v>
       </c>
       <c r="Y21" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
+        <v>0</v>
+      </c>
+      <c r="S22" t="n">
+        <v>0</v>
+      </c>
+      <c r="T22" t="n">
+        <v>0</v>
+      </c>
+      <c r="U22" t="n">
+        <v>0</v>
+      </c>
+      <c r="V22" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S22" t="n">
-        <v>0</v>
-      </c>
-      <c r="T22" t="n">
-        <v>0</v>
-      </c>
-      <c r="U22" t="n">
-        <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,67 +2317,67 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="n">
+        <v>90.38893773807641</v>
+      </c>
+      <c r="J23" t="n">
+        <v>11.94928935461252</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R23" t="n">
+        <v>149.8691179411497</v>
+      </c>
+      <c r="S23" t="n">
+        <v>209.0200695862453</v>
+      </c>
+      <c r="T23" t="n">
+        <v>223.0958495641314</v>
+      </c>
+      <c r="U23" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
-      </c>
       <c r="V23" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2394,19 +2396,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106.6874096712025</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E24" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2448,16 +2450,16 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>62.43486741948623</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X24" t="n">
         <v>205.7729852034775</v>
@@ -2555,73 +2557,73 @@
         <v>241.0142888776591</v>
       </c>
       <c r="C26" t="n">
+        <v>0</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R26" t="n">
+        <v>0</v>
+      </c>
+      <c r="S26" t="n">
+        <v>0</v>
+      </c>
+      <c r="T26" t="n">
+        <v>202.2946864288972</v>
+      </c>
+      <c r="U26" t="n">
+        <v>0</v>
+      </c>
+      <c r="V26" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
-      </c>
-      <c r="E26" t="n">
+      <c r="W26" t="n">
+        <v>0</v>
+      </c>
+      <c r="X26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y26" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>0</v>
-      </c>
-      <c r="R26" t="n">
-        <v>0</v>
-      </c>
-      <c r="S26" t="n">
-        <v>0</v>
-      </c>
-      <c r="T26" t="n">
-        <v>0</v>
-      </c>
-      <c r="U26" t="n">
-        <v>0</v>
-      </c>
-      <c r="V26" t="n">
-        <v>0</v>
-      </c>
-      <c r="W26" t="n">
-        <v>0</v>
-      </c>
-      <c r="X26" t="n">
-        <v>212.285385643442</v>
-      </c>
-      <c r="Y26" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2631,16 +2633,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D27" t="n">
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
@@ -2652,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>31.84747338445135</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -2685,22 +2687,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U27" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y27" t="n">
-        <v>205.6826957773044</v>
+        <v>29.79900896488263</v>
       </c>
     </row>
     <row r="28">
@@ -2767,10 +2769,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
+        <v>0</v>
+      </c>
+      <c r="V28" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V28" t="n">
-        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2789,28 +2791,28 @@
         </is>
       </c>
       <c r="B29" t="n">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C29" t="n">
-        <v>0</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
-      </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>232.8330857361503</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2834,7 +2836,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -2858,7 +2860,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.285385643442</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2874,16 +2876,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G30" t="n">
-        <v>137.3435171632106</v>
+        <v>85.83512306370304</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -2916,25 +2918,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>153.8375610033827</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
         <v>0</v>
@@ -2989,7 +2991,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3007,7 +3009,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>133.186967585368</v>
+        <v>130.4655268502615</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3035,19 +3037,19 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3071,25 +3073,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>33.80371536444981</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
@@ -3105,7 +3107,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>115.7580399383184</v>
       </c>
       <c r="C33" t="n">
         <v>172.7084989883157</v>
@@ -3120,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>83.03189205754171</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,22 +3161,22 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
       </c>
       <c r="V33" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="X33" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="34">
@@ -3205,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3244,7 +3246,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -3263,10 +3265,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>212.2853856434421</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -3311,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3329,7 +3331,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>80.33470701582003</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -3348,13 +3350,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>102.9270600461948</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F36" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>137.3435171632106</v>
@@ -3363,10 +3365,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I36" t="n">
-        <v>89.39663285141508</v>
+        <v>56.09847647000858</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T36" t="n">
         <v>200.1647286948216</v>
@@ -3475,7 +3477,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -3490,7 +3492,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3545,13 +3547,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S38" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
         <v>223.0958495641314</v>
@@ -3560,16 +3562,16 @@
         <v>0</v>
       </c>
       <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="W38" t="n">
-        <v>90.38893773807641</v>
-      </c>
       <c r="X38" t="n">
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>68.3854176612075</v>
       </c>
     </row>
     <row r="39">
@@ -3588,22 +3590,22 @@
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F39" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>45.64624168910123</v>
       </c>
       <c r="J39" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -3636,16 +3638,16 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U39" t="n">
-        <v>219.20361554932</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V39" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3724,7 +3726,7 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3737,73 +3739,73 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
+        <v>0</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C41" t="n">
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
+        <v>0</v>
+      </c>
+      <c r="P41" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>9.990699214544804</v>
+      </c>
+      <c r="R41" t="n">
+        <v>0</v>
+      </c>
+      <c r="S41" t="n">
+        <v>0</v>
+      </c>
+      <c r="T41" t="n">
+        <v>0</v>
+      </c>
+      <c r="U41" t="n">
+        <v>0</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="D41" t="n">
-        <v>0</v>
-      </c>
-      <c r="E41" t="n">
-        <v>212.2853856434421</v>
-      </c>
-      <c r="F41" t="n">
-        <v>0</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>0</v>
-      </c>
-      <c r="R41" t="n">
-        <v>0</v>
-      </c>
-      <c r="S41" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" t="n">
-        <v>0</v>
-      </c>
-      <c r="U41" t="n">
-        <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>0</v>
-      </c>
-      <c r="W41" t="n">
-        <v>0</v>
-      </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>202.2946864288972</v>
       </c>
       <c r="Y41" t="n">
         <v>241.0142888776591</v>
@@ -3819,7 +3821,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C42" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D42" t="n">
         <v>0</v>
@@ -3867,7 +3869,7 @@
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T42" t="n">
         <v>0</v>
@@ -3882,10 +3884,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X42" t="n">
-        <v>205.7729852034775</v>
+        <v>38.17946863125426</v>
       </c>
       <c r="Y42" t="n">
-        <v>37.06385132060323</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="43">
@@ -3952,13 +3954,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
-      </c>
-      <c r="W43" t="n">
-        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3974,10 +3976,10 @@
         </is>
       </c>
       <c r="B44" t="n">
+        <v>40.47627913313517</v>
+      </c>
+      <c r="C44" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="C44" t="n">
-        <v>62.4162677022923</v>
       </c>
       <c r="D44" t="n">
         <v>241.0142888776591</v>
@@ -3998,7 +4000,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -4019,7 +4021,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R44" t="n">
         <v>149.8691179411497</v>
@@ -4034,7 +4036,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4043,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4062,7 +4064,7 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E45" t="n">
-        <v>152.2207240410305</v>
+        <v>62.07749986335751</v>
       </c>
       <c r="F45" t="n">
         <v>145.0692123933839</v>
@@ -4074,10 +4076,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4153,7 +4155,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4189,7 +4191,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4349,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>752.9257720901863</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U2" t="n">
-        <v>527.5764290961142</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V2" t="n">
-        <v>527.5764290961142</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W2" t="n">
-        <v>527.5764290961142</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="X2" t="n">
-        <v>284.1276524520142</v>
+        <v>315.6850394389064</v>
       </c>
       <c r="Y2" t="n">
-        <v>40.6788758079141</v>
+        <v>72.23626279480629</v>
       </c>
     </row>
     <row r="3">
@@ -4383,43 +4385,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>689.4702815141908</v>
+        <v>501.9060370580465</v>
       </c>
       <c r="C3" t="n">
-        <v>689.4702815141908</v>
+        <v>327.4530077769195</v>
       </c>
       <c r="D3" t="n">
-        <v>668.2068788942177</v>
+        <v>178.5185981156682</v>
       </c>
       <c r="E3" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>374.6018090363993</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M3" t="n">
-        <v>613.2059550252818</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N3" t="n">
-        <v>851.8101010141643</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O3" t="n">
         <v>894.6625969973069</v>
@@ -4431,28 +4433,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W3" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X3" t="n">
-        <v>689.4702815141908</v>
+        <v>877.8816728430684</v>
       </c>
       <c r="Y3" t="n">
-        <v>689.4702815141908</v>
+        <v>670.1213740781145</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I4" t="n">
-        <v>64.03213664411894</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J4" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K4" t="n">
         <v>19.28114311021272</v>
@@ -4504,34 +4506,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y4" t="n">
-        <v>64.03213664411894</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="C5" t="n">
-        <v>333.7844730889342</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="D5" t="n">
-        <v>90.33569644483418</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="E5" t="n">
-        <v>90.33569644483418</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4588,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>802.5825927271064</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>944.1299480494607</v>
       </c>
       <c r="T5" t="n">
-        <v>577.2332497330343</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="U5" t="n">
-        <v>577.2332497330343</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="V5" t="n">
-        <v>577.2332497330343</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="W5" t="n">
-        <v>577.2332497330343</v>
+        <v>718.7806050553886</v>
       </c>
       <c r="X5" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="Y5" t="n">
-        <v>577.2332497330343</v>
+        <v>475.3318284112885</v>
       </c>
     </row>
     <row r="6">
@@ -4623,19 +4625,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="C6" t="n">
-        <v>817.1412885554689</v>
+        <v>789.6041262295092</v>
       </c>
       <c r="D6" t="n">
-        <v>668.2068788942177</v>
+        <v>640.669716568258</v>
       </c>
       <c r="E6" t="n">
-        <v>508.9694238887622</v>
+        <v>481.4322615628025</v>
       </c>
       <c r="F6" t="n">
-        <v>362.4348659156472</v>
+        <v>334.8977035896875</v>
       </c>
       <c r="G6" t="n">
-        <v>223.7040404982626</v>
+        <v>196.166878172303</v>
       </c>
       <c r="H6" t="n">
         <v>110.334904905842</v>
@@ -4647,19 +4649,19 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>249.2442489785619</v>
+        <v>178.8501590306595</v>
       </c>
       <c r="M6" t="n">
-        <v>487.8483949674443</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N6" t="n">
-        <v>487.8483949674443</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O6" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P6" t="n">
         <v>894.6625969973069</v>
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I7" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J7" t="n">
         <v>19.28114311021272</v>
@@ -4753,22 +4755,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y7" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C8" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="D8" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E8" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>730.8505943024719</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>964.0571555106362</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C9" t="n">
-        <v>817.1412885554689</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>668.2068788942177</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>508.9694238887622</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>362.4348659156472</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>223.7040404982626</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>234.810827406191</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O9" t="n">
         <v>712.019119383956</v>
@@ -4920,13 +4922,13 @@
         <v>964.0571555106362</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>777.5613083818946</v>
       </c>
       <c r="X9" t="n">
-        <v>964.0571555106362</v>
+        <v>569.7098081763618</v>
       </c>
       <c r="Y9" t="n">
-        <v>964.0571555106362</v>
+        <v>361.9495094114078</v>
       </c>
     </row>
     <row r="10">
@@ -4957,7 +4959,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="I10" t="n">
-        <v>19.28114311021272</v>
+        <v>113.583345248266</v>
       </c>
       <c r="J10" t="n">
         <v>19.28114311021272</v>
@@ -5018,16 +5020,16 @@
         <v>262.7299197543128</v>
       </c>
       <c r="C11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F11" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G11" t="n">
         <v>19.28114311021272</v>
@@ -5060,31 +5062,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q11" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R11" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S11" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="V11" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W11" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X11" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y11" t="n">
-        <v>506.1786963984129</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5096,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C12" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D12" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E12" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F12" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G12" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H12" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I12" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J12" t="n">
         <v>19.28114311021272</v>
@@ -5127,7 +5129,7 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M12" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N12" t="n">
         <v>542.809531908403</v>
@@ -5142,28 +5144,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R12" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S12" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T12" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U12" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V12" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y12" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="13">
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I13" t="n">
         <v>19.28114311021272</v>
@@ -5215,34 +5217,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P13" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q13" t="n">
-        <v>153.8134336004835</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y13" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C14" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D14" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="E14" t="n">
-        <v>262.7299197543128</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="F14" t="n">
-        <v>262.7299197543128</v>
+        <v>730.8505943024719</v>
       </c>
       <c r="G14" t="n">
-        <v>19.28114311021272</v>
+        <v>487.4018176583718</v>
       </c>
       <c r="H14" t="n">
-        <v>19.28114311021272</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I14" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J14" t="n">
         <v>19.28114311021272</v>
@@ -5297,31 +5299,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X14" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y14" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="15">
@@ -5331,19 +5333,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>900.5405560409666</v>
+        <v>761.8097306235821</v>
       </c>
       <c r="C15" t="n">
-        <v>726.0875267598396</v>
+        <v>587.3567013424552</v>
       </c>
       <c r="D15" t="n">
-        <v>577.1531170985884</v>
+        <v>438.4222916812039</v>
       </c>
       <c r="E15" t="n">
-        <v>417.9156620931329</v>
+        <v>279.1848366757484</v>
       </c>
       <c r="F15" t="n">
-        <v>271.3811041200179</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="G15" t="n">
         <v>132.6502787026334</v>
@@ -5358,22 +5360,22 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K15" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L15" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M15" t="n">
-        <v>473.4149733950735</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N15" t="n">
-        <v>473.4149733950735</v>
+        <v>725.4530095217538</v>
       </c>
       <c r="O15" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P15" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q15" t="n">
         <v>964.0571555106362</v>
@@ -5400,7 +5402,7 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Y15" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8097306235821</v>
       </c>
     </row>
     <row r="16">
@@ -5410,31 +5412,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I16" t="n">
-        <v>136.0777814360265</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J16" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K16" t="n">
         <v>19.28114311021272</v>
@@ -5455,31 +5457,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q16" t="n">
-        <v>151.0645035650224</v>
+        <v>64.03213664411894</v>
       </c>
       <c r="R16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="S16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y16" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="17">
@@ -5489,13 +5491,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>749.627473042513</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C17" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D17" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E17" t="n">
         <v>19.28114311021272</v>
@@ -5534,31 +5536,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q17" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R17" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S17" t="n">
-        <v>964.0571555106362</v>
+        <v>731.528039392485</v>
       </c>
       <c r="T17" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="U17" t="n">
-        <v>964.0571555106362</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="V17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y17" t="n">
-        <v>964.0571555106362</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C18" t="n">
-        <v>19.28114311021272</v>
+        <v>817.1412885554689</v>
       </c>
       <c r="D18" t="n">
-        <v>19.28114311021272</v>
+        <v>668.2068788942177</v>
       </c>
       <c r="E18" t="n">
-        <v>19.28114311021272</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F18" t="n">
-        <v>19.28114311021272</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G18" t="n">
-        <v>19.28114311021272</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H18" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I18" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J18" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K18" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L18" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M18" t="n">
-        <v>383.2428491569326</v>
+        <v>417.4543050195419</v>
       </c>
       <c r="N18" t="n">
-        <v>621.8469951458151</v>
+        <v>656.0584510084244</v>
       </c>
       <c r="O18" t="n">
-        <v>712.019119383956</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="P18" t="n">
         <v>894.6625969973069</v>
@@ -5616,28 +5618,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R18" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S18" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T18" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U18" t="n">
-        <v>259.0600686093459</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V18" t="n">
-        <v>23.90796037760316</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y18" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="19">
@@ -5698,16 +5700,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="S19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V19" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W19" t="n">
         <v>19.28114311021272</v>
@@ -5726,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="C20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="D20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="E20" t="n">
-        <v>506.1786963984129</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="F20" t="n">
-        <v>262.7299197543128</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="G20" t="n">
-        <v>19.28114311021272</v>
+        <v>40.6788758079141</v>
       </c>
       <c r="H20" t="n">
         <v>19.28114311021272</v>
@@ -5777,25 +5779,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S20" t="n">
-        <v>964.0571555106362</v>
+        <v>752.9257720901863</v>
       </c>
       <c r="T20" t="n">
-        <v>964.0571555106362</v>
+        <v>527.5764290961142</v>
       </c>
       <c r="U20" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="V20" t="n">
-        <v>964.0571555106362</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="W20" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="X20" t="n">
-        <v>749.627473042513</v>
+        <v>284.1276524520142</v>
       </c>
       <c r="Y20" t="n">
-        <v>749.627473042513</v>
+        <v>40.6788758079141</v>
       </c>
     </row>
     <row r="21">
@@ -5805,46 +5807,46 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>249.0657303232264</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="C21" t="n">
-        <v>249.0657303232264</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="D21" t="n">
-        <v>249.0657303232264</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="E21" t="n">
-        <v>249.0657303232264</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="F21" t="n">
-        <v>249.0657303232264</v>
+        <v>158.0119685275972</v>
       </c>
       <c r="G21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H21" t="n">
-        <v>110.334904905842</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I21" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J21" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K21" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L21" t="n">
-        <v>144.6387031680501</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M21" t="n">
-        <v>383.2428491569326</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="N21" t="n">
-        <v>621.8469951458151</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O21" t="n">
-        <v>860.4511411346975</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P21" t="n">
         <v>894.6625969973069</v>
@@ -5856,25 +5858,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T21" t="n">
-        <v>790.6398109613051</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U21" t="n">
-        <v>790.6398109613051</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V21" t="n">
-        <v>625.1325675488273</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W21" t="n">
-        <v>625.1325675488273</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="X21" t="n">
-        <v>417.2810673432945</v>
+        <v>304.5465265007123</v>
       </c>
       <c r="Y21" t="n">
-        <v>417.2810673432945</v>
+        <v>304.5465265007123</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L22" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M22" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N22" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q22" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U22" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y22" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="C23" t="n">
-        <v>506.1786963984129</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="D23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="E23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="F23" t="n">
-        <v>262.7299197543128</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="G23" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="H23" t="n">
-        <v>19.28114311021272</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="I23" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J23" t="n">
         <v>19.28114311021272</v>
@@ -6008,31 +6010,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q23" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R23" t="n">
-        <v>964.0571555106362</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S23" t="n">
-        <v>964.0571555106362</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T23" t="n">
-        <v>964.0571555106362</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U23" t="n">
-        <v>964.0571555106362</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="V23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="W23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="X23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
       <c r="Y23" t="n">
-        <v>749.627473042513</v>
+        <v>122.6530896684844</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6044,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>648.4405950311615</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C24" t="n">
-        <v>473.9875657500345</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D24" t="n">
-        <v>325.0531560887832</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E24" t="n">
-        <v>165.8157010833278</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F24" t="n">
         <v>19.28114311021272</v>
@@ -6075,16 +6077,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="M24" t="n">
-        <v>234.810827406191</v>
+        <v>257.8852890990952</v>
       </c>
       <c r="N24" t="n">
-        <v>473.4149733950735</v>
+        <v>496.4894350879777</v>
       </c>
       <c r="O24" t="n">
-        <v>712.019119383956</v>
+        <v>735.0935810768601</v>
       </c>
       <c r="P24" t="n">
-        <v>894.6625969973069</v>
+        <v>917.7370586902109</v>
       </c>
       <c r="Q24" t="n">
         <v>964.0571555106362</v>
@@ -6096,22 +6098,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T24" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U24" t="n">
-        <v>964.0571555106362</v>
+        <v>533.6469426057913</v>
       </c>
       <c r="V24" t="n">
-        <v>964.0571555106362</v>
+        <v>470.5814199598456</v>
       </c>
       <c r="W24" t="n">
-        <v>964.0571555106362</v>
+        <v>227.1326433157456</v>
       </c>
       <c r="X24" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y24" t="n">
-        <v>756.2056553051034</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="25">
@@ -6200,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>506.1786963984129</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D26" t="n">
-        <v>262.7299197543128</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E26" t="n">
         <v>19.28114311021272</v>
@@ -6245,31 +6247,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S26" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U26" t="n">
-        <v>964.0571555106362</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W26" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X26" t="n">
-        <v>749.627473042513</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y26" t="n">
-        <v>749.627473042513</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="27">
@@ -6279,49 +6281,49 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>385.8949250843803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C27" t="n">
-        <v>211.4418958032533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D27" t="n">
-        <v>211.4418958032533</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E27" t="n">
-        <v>52.20444079779779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F27" t="n">
-        <v>52.20444079779779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G27" t="n">
-        <v>52.20444079779779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H27" t="n">
-        <v>52.20444079779779</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I27" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J27" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K27" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M27" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N27" t="n">
-        <v>487.8483949674443</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O27" t="n">
-        <v>726.4525409563269</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P27" t="n">
-        <v>909.0960185696777</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q27" t="n">
         <v>964.0571555106362</v>
@@ -6333,22 +6335,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T27" t="n">
-        <v>761.8705608694022</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U27" t="n">
-        <v>761.8705608694022</v>
+        <v>735.8335372470253</v>
       </c>
       <c r="V27" t="n">
-        <v>761.8705608694022</v>
+        <v>500.6814290152826</v>
       </c>
       <c r="W27" t="n">
-        <v>761.8705608694022</v>
+        <v>257.2326523711826</v>
       </c>
       <c r="X27" t="n">
-        <v>761.8705608694022</v>
+        <v>49.38115216564972</v>
       </c>
       <c r="Y27" t="n">
-        <v>554.1102621044483</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="28">
@@ -6415,7 +6417,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U28" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V28" t="n">
         <v>19.28114311021272</v>
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="C29" t="n">
-        <v>506.1786963984129</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="D29" t="n">
-        <v>506.1786963984129</v>
+        <v>710.516763498309</v>
       </c>
       <c r="E29" t="n">
-        <v>506.1786963984129</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="F29" t="n">
-        <v>506.1786963984129</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="G29" t="n">
-        <v>262.7299197543128</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="H29" t="n">
-        <v>19.28114311021272</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I29" t="n">
         <v>19.28114311021272</v>
@@ -6482,31 +6484,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X29" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y29" t="n">
-        <v>749.627473042513</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="30">
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>158.0119685275972</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="C30" t="n">
-        <v>158.0119685275972</v>
+        <v>560.6897102588255</v>
       </c>
       <c r="D30" t="n">
-        <v>158.0119685275972</v>
+        <v>411.7553005975742</v>
       </c>
       <c r="E30" t="n">
-        <v>158.0119685275972</v>
+        <v>252.5178455921187</v>
       </c>
       <c r="F30" t="n">
-        <v>158.0119685275972</v>
+        <v>105.9832876190037</v>
       </c>
       <c r="G30" t="n">
         <v>19.28114311021272</v>
@@ -6546,10 +6548,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L30" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M30" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N30" t="n">
         <v>542.809531908403</v>
@@ -6564,28 +6566,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R30" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S30" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T30" t="n">
-        <v>534.0788057531981</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U30" t="n">
-        <v>534.0788057531981</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V30" t="n">
-        <v>534.0788057531981</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="W30" t="n">
-        <v>534.0788057531981</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="X30" t="n">
-        <v>326.2273055476653</v>
+        <v>728.9050472788936</v>
       </c>
       <c r="Y30" t="n">
-        <v>326.2273055476653</v>
+        <v>728.9050472788936</v>
       </c>
     </row>
     <row r="31">
@@ -6637,22 +6639,22 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Q31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U31" t="n">
-        <v>153.8134336004835</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V31" t="n">
         <v>19.28114311021272</v>
@@ -6674,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="C32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="D32" t="n">
-        <v>231.8830517671884</v>
+        <v>749.627473042513</v>
       </c>
       <c r="E32" t="n">
-        <v>231.8830517671884</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="F32" t="n">
-        <v>231.8830517671884</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H32" t="n">
-        <v>231.8830517671884</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I32" t="n">
         <v>19.28114311021272</v>
@@ -6719,31 +6721,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R32" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T32" t="n">
-        <v>752.9257720901863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U32" t="n">
-        <v>509.4769954460863</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V32" t="n">
-        <v>266.0282188019862</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W32" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="X32" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="Y32" t="n">
-        <v>231.8830517671884</v>
+        <v>953.9655401424092</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>277.6047704292607</v>
+        <v>193.7341723913397</v>
       </c>
       <c r="C33" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D33" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E33" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F33" t="n">
-        <v>103.1517411481337</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G33" t="n">
         <v>19.28114311021272</v>
@@ -6786,16 +6788,16 @@
         <v>374.6018090363993</v>
       </c>
       <c r="M33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N33" t="n">
-        <v>473.4149733950735</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O33" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P33" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q33" t="n">
         <v>964.0571555106362</v>
@@ -6807,22 +6809,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U33" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V33" t="n">
-        <v>728.9050472788936</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="W33" t="n">
-        <v>485.4562706347935</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="X33" t="n">
-        <v>277.6047704292607</v>
+        <v>518.4217842253022</v>
       </c>
       <c r="Y33" t="n">
-        <v>277.6047704292607</v>
+        <v>310.6614854603483</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="C34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="D34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="E34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="F34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="G34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="H34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="I34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K34" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L34" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M34" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N34" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U34" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Y34" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.7108255783361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C35" t="n">
         <v>19.28114311021272</v>
@@ -6959,28 +6961,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S35" t="n">
-        <v>964.0571555106362</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U35" t="n">
-        <v>964.0571555106362</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V35" t="n">
-        <v>720.6083788665362</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="W35" t="n">
-        <v>477.1596022224361</v>
+        <v>100.4273118130612</v>
       </c>
       <c r="X35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y35" t="n">
-        <v>477.1596022224361</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="C36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="D36" t="n">
-        <v>612.9361512081509</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="E36" t="n">
-        <v>508.9694238887622</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="F36" t="n">
-        <v>362.4348659156472</v>
+        <v>328.0462318675013</v>
       </c>
       <c r="G36" t="n">
-        <v>223.7040404982626</v>
+        <v>189.3154064501168</v>
       </c>
       <c r="H36" t="n">
-        <v>110.334904905842</v>
+        <v>75.94627085769615</v>
       </c>
       <c r="I36" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J36" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K36" t="n">
-        <v>144.6387031680501</v>
+        <v>74.24228005117135</v>
       </c>
       <c r="L36" t="n">
-        <v>374.6018090363993</v>
+        <v>304.2053859195205</v>
       </c>
       <c r="M36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N36" t="n">
-        <v>613.2059550252818</v>
+        <v>542.809531908403</v>
       </c>
       <c r="O36" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P36" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q36" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R36" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S36" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="U36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="V36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="W36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="X36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
       <c r="Y36" t="n">
-        <v>761.8705608694022</v>
+        <v>487.2836868729568</v>
       </c>
     </row>
     <row r="37">
@@ -7123,19 +7125,19 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="U37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="V37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X37" t="n">
-        <v>964.0571555106362</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y37" t="n">
         <v>829.5248650203655</v>
@@ -7193,31 +7195,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q38" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R38" t="n">
-        <v>802.5825927271064</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="S38" t="n">
-        <v>591.4512093066566</v>
+        <v>812.6742080953335</v>
       </c>
       <c r="T38" t="n">
-        <v>366.1018663125844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="U38" t="n">
-        <v>366.1018663125844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="V38" t="n">
-        <v>122.6530896684844</v>
+        <v>587.3248651012614</v>
       </c>
       <c r="W38" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="X38" t="n">
-        <v>31.35113235729608</v>
+        <v>343.8760884571613</v>
       </c>
       <c r="Y38" t="n">
-        <v>31.35113235729608</v>
+        <v>274.7999090013961</v>
       </c>
     </row>
     <row r="39">
@@ -7227,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>305.3006591534979</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="C39" t="n">
-        <v>305.3006591534979</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="D39" t="n">
-        <v>305.3006591534979</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="E39" t="n">
-        <v>305.3006591534979</v>
+        <v>65.38845794768872</v>
       </c>
       <c r="F39" t="n">
-        <v>158.7661011803829</v>
+        <v>65.38845794768872</v>
       </c>
       <c r="G39" t="n">
-        <v>20.03527576299844</v>
+        <v>65.38845794768872</v>
       </c>
       <c r="H39" t="n">
-        <v>20.03527576299844</v>
+        <v>65.38845794768872</v>
       </c>
       <c r="I39" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J39" t="n">
         <v>19.28114311021272</v>
@@ -7257,46 +7259,46 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L39" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M39" t="n">
-        <v>383.2428491569326</v>
+        <v>542.809531908403</v>
       </c>
       <c r="N39" t="n">
-        <v>621.8469951458151</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="O39" t="n">
-        <v>712.019119383956</v>
+        <v>781.4136778972854</v>
       </c>
       <c r="P39" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q39" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S39" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T39" t="n">
-        <v>761.8705608694022</v>
+        <v>660.701031422288</v>
       </c>
       <c r="U39" t="n">
-        <v>540.4527673852406</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="V39" t="n">
-        <v>305.3006591534979</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="W39" t="n">
-        <v>305.3006591534979</v>
+        <v>432.4774131586771</v>
       </c>
       <c r="X39" t="n">
-        <v>305.3006591534979</v>
+        <v>224.6259129531442</v>
       </c>
       <c r="Y39" t="n">
-        <v>305.3006591534979</v>
+        <v>224.6259129531442</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K40" t="n">
-        <v>829.5248650203655</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L40" t="n">
-        <v>856.8389900280785</v>
+        <v>46.5952681179257</v>
       </c>
       <c r="M40" t="n">
-        <v>896.0270282203006</v>
+        <v>85.78330631014788</v>
       </c>
       <c r="N40" t="n">
-        <v>939.7178788757369</v>
+        <v>129.4741569655842</v>
       </c>
       <c r="O40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="P40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W40" t="n">
-        <v>964.0571555106362</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y40" t="n">
-        <v>829.5248650203655</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
     <row r="41">
@@ -7385,22 +7387,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>477.1596022224361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D41" t="n">
-        <v>233.7108255783361</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="E41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="G41" t="n">
-        <v>19.28114311021272</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H41" t="n">
         <v>19.28114311021272</v>
@@ -7430,31 +7432,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="V41" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="W41" t="n">
-        <v>964.0571555106362</v>
+        <v>710.516763498309</v>
       </c>
       <c r="X41" t="n">
-        <v>964.0571555106362</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y41" t="n">
-        <v>720.6083788665362</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="42">
@@ -7464,7 +7466,7 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>307.1033079837604</v>
+        <v>132.6502787026334</v>
       </c>
       <c r="C42" t="n">
         <v>132.6502787026334</v>
@@ -7491,13 +7493,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K42" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L42" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M42" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N42" t="n">
         <v>656.0584510084244</v>
@@ -7515,25 +7517,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="U42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="V42" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="W42" t="n">
-        <v>720.6083788665362</v>
+        <v>547.1910343172051</v>
       </c>
       <c r="X42" t="n">
-        <v>512.7568786610034</v>
+        <v>508.6259144876553</v>
       </c>
       <c r="Y42" t="n">
-        <v>475.3186450038284</v>
+        <v>300.8656157227014</v>
       </c>
     </row>
     <row r="43">
@@ -7600,10 +7602,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V43" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W43" t="n">
         <v>19.28114311021272</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>325.7766548071333</v>
+        <v>518.2486856454962</v>
       </c>
       <c r="C44" t="n">
-        <v>262.7299197543128</v>
+        <v>274.7999090013961</v>
       </c>
       <c r="D44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="E44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="F44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="G44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I44" t="n">
-        <v>19.28114311021272</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="J44" t="n">
         <v>19.28114311021272</v>
@@ -7667,31 +7669,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q44" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="U44" t="n">
-        <v>812.6742080953335</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="V44" t="n">
-        <v>812.6742080953335</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="W44" t="n">
-        <v>812.6742080953335</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="X44" t="n">
-        <v>812.6742080953335</v>
+        <v>559.1338160830064</v>
       </c>
       <c r="Y44" t="n">
-        <v>569.2254314512334</v>
+        <v>559.1338160830064</v>
       </c>
     </row>
     <row r="45">
@@ -7710,40 +7712,40 @@
         <v>571.6739692052849</v>
       </c>
       <c r="E45" t="n">
-        <v>417.9156620931329</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F45" t="n">
-        <v>271.3811041200179</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G45" t="n">
-        <v>132.6502787026334</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H45" t="n">
-        <v>19.28114311021272</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I45" t="n">
-        <v>19.28114311021272</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="J45" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K45" t="n">
-        <v>144.6387031680501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="L45" t="n">
-        <v>374.6018090363993</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M45" t="n">
-        <v>613.2059550252818</v>
+        <v>487.8483949674443</v>
       </c>
       <c r="N45" t="n">
-        <v>613.2059550252818</v>
+        <v>726.4525409563269</v>
       </c>
       <c r="O45" t="n">
-        <v>712.019119383956</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P45" t="n">
-        <v>894.6625969973069</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q45" t="n">
         <v>964.0571555106362</v>
@@ -7780,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="C46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="D46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="E46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="F46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="G46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="H46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="I46" t="n">
         <v>19.28114311021272</v>
@@ -7837,19 +7839,19 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="V46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="W46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="X46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Y46" t="n">
-        <v>19.28114311021272</v>
+        <v>153.8134336004835</v>
       </c>
     </row>
   </sheetData>
@@ -7982,7 +7984,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L2" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M2" t="n">
         <v>449.5135334928325</v>
@@ -8058,10 +8060,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>299.7352039419416</v>
       </c>
       <c r="M3" t="n">
         <v>383.1483227996774</v>
@@ -8070,7 +8072,7 @@
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>185.8815939223662</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P3" t="n">
         <v>133.9744074143302</v>
@@ -8295,22 +8297,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>173.111405903722</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>369.031319612638</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8456,7 +8458,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504505</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M8" t="n">
         <v>449.5135334928325</v>
@@ -8532,19 +8534,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>231.1529892133072</v>
       </c>
       <c r="O9" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P9" t="n">
         <v>318.4627686399372</v>
@@ -8775,10 +8777,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>312.04082470182</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O12" t="n">
         <v>383.6105333221035</v>
@@ -9006,25 +9008,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M15" t="n">
-        <v>241.9453110519923</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>371.3463732493024</v>
       </c>
       <c r="O15" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9243,22 +9245,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>383.1483227996774</v>
+        <v>312.0431814381598</v>
       </c>
       <c r="N18" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O18" t="n">
-        <v>233.6791982203443</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>210.0772877358491</v>
@@ -9480,22 +9482,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N21" t="n">
-        <v>372.3560009609923</v>
+        <v>357.7767872515269</v>
       </c>
       <c r="O21" t="n">
         <v>383.6105333221035</v>
       </c>
       <c r="P21" t="n">
-        <v>168.5314335381781</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9723,7 +9725,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>359.8407857361378</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N24" t="n">
         <v>372.3560009609923</v>
@@ -9735,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>186.7697506723097</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9954,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9963,7 +9965,7 @@
         <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O27" t="n">
         <v>383.6105333221035</v>
@@ -9972,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>195.4980740263837</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10112,7 +10114,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L29" t="n">
         <v>417.6612145504504</v>
@@ -10194,13 +10196,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>299.7328472056018</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>131.3417120833333</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O30" t="n">
         <v>383.6105333221035</v>
@@ -10349,7 +10351,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711648</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
         <v>417.6612145504504</v>
@@ -10434,7 +10436,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>241.9453110519923</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N33" t="n">
         <v>131.3417120833333</v>
@@ -10446,7 +10448,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10665,7 +10667,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>193.3577389147212</v>
       </c>
       <c r="L36" t="n">
         <v>370.8403453034592</v>
@@ -10677,13 +10679,13 @@
         <v>131.3417120833333</v>
       </c>
       <c r="O36" t="n">
-        <v>242.4075215744184</v>
+        <v>383.6105333221035</v>
       </c>
       <c r="P36" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10905,22 +10907,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>383.1483227996774</v>
+        <v>312.04082470182</v>
       </c>
       <c r="N39" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O39" t="n">
-        <v>233.6791982203443</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11139,16 +11141,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>312.0431814381598</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N42" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O42" t="n">
         <v>383.6105333221035</v>
@@ -11376,7 +11378,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
@@ -11385,16 +11387,16 @@
         <v>383.1483227996774</v>
       </c>
       <c r="N45" t="n">
-        <v>131.3417120833333</v>
+        <v>372.3560009609923</v>
       </c>
       <c r="O45" t="n">
-        <v>242.4075215744184</v>
+        <v>382.6009056104135</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>361.5500862927562</v>
+        <v>330.3082731757329</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22589,28 +22591,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>145.2236497783945</v>
@@ -22623,31 +22625,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>126.3942969708654</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -22671,10 +22673,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
         <v>200.1647286948216</v>
@@ -22689,10 +22691,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>120.4592573625853</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22723,13 +22725,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I4" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J4" t="n">
-        <v>71.32518834398849</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22744,10 +22746,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
         <v>177.2933913771695</v>
@@ -22781,31 +22783,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>348.4813272950487</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>415.302737515135</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22826,13 +22828,13 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>189.2921341996816</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -22847,7 +22849,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>128.71681180081</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -22863,7 +22865,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -22878,7 +22880,7 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>27.26179070270005</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -22960,10 +22962,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I7" t="n">
-        <v>155.4504749272583</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J7" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>22.26949182588285</v>
@@ -22993,7 +22995,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>94.75862184291347</v>
+        <v>227.9455894282815</v>
       </c>
       <c r="U7" t="n">
         <v>286.3190293564909</v>
@@ -23018,31 +23020,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>170.4484560200386</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F8" t="n">
-        <v>176.0015501456288</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23097,31 +23099,31 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>27.26179070270013</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23160,13 +23162,13 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>67.06409450346541</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23197,10 +23199,10 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I10" t="n">
-        <v>22.26350734189026</v>
+        <v>115.622687458563</v>
       </c>
       <c r="J10" t="n">
-        <v>93.35918011667277</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>22.26949182588285</v>
@@ -23255,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -23270,7 +23272,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H11" t="n">
         <v>339.4748021157671</v>
@@ -23300,16 +23302,16 @@
         <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T11" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>251.3456529078365</v>
@@ -23318,13 +23320,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X11" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23337,28 +23339,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D12" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -23382,22 +23384,22 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V12" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W12" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X12" t="n">
         <v>205.7729852034775</v>
@@ -23434,7 +23436,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I13" t="n">
-        <v>22.26350734189026</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J13" t="n">
         <v>93.35918011667277</v>
@@ -23455,13 +23457,13 @@
         <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S13" t="n">
         <v>224.0165980369723</v>
@@ -23498,25 +23500,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>185.9922493601736</v>
       </c>
       <c r="G14" t="n">
         <v>174.288448637476</v>
       </c>
       <c r="H14" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I14" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23537,7 +23539,7 @@
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>149.8691179411497</v>
@@ -23561,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.6517501748945</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23586,7 +23588,7 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -23640,7 +23642,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y15" t="n">
-        <v>205.6826957773044</v>
+        <v>5.457745139120846</v>
       </c>
     </row>
     <row r="16">
@@ -23671,13 +23673,13 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I16" t="n">
-        <v>140.6136200195524</v>
+        <v>155.4504749272583</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>93.35918011667277</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23695,10 +23697,10 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>86.16204325169439</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>177.2933913771695</v>
+        <v>132.9899077786023</v>
       </c>
       <c r="S16" t="n">
         <v>224.0165980369723</v>
@@ -23729,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>170.4484560200386</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -23774,22 +23776,22 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>209.0200695862453</v>
+        <v>138.6760617849701</v>
       </c>
       <c r="T17" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -23811,28 +23813,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C18" t="n">
-        <v>172.7084989883157</v>
+        <v>27.26179070270013</v>
       </c>
       <c r="D18" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -23856,22 +23858,22 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S18" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V18" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W18" t="n">
-        <v>247.1144340662031</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X18" t="n">
         <v>205.7729852034775</v>
@@ -23938,7 +23940,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S19" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T19" t="n">
         <v>227.9455894282815</v>
@@ -23950,7 +23952,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -23966,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
         <v>365.2728917710076</v>
@@ -23978,13 +23980,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>165.8617568640524</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H20" t="n">
-        <v>339.4748021157671</v>
+        <v>318.2910467450428</v>
       </c>
       <c r="I20" t="n">
         <v>210.4758895704059</v>
@@ -24017,25 +24019,25 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S20" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>136.955583073971</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="21">
@@ -24045,7 +24047,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C21" t="n">
         <v>172.7084989883157</v>
@@ -24057,7 +24059,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24066,10 +24068,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24096,22 +24098,22 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T21" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U21" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V21" t="n">
-        <v>68.94841617107224</v>
+        <v>0</v>
       </c>
       <c r="W21" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>11.59943171405286</v>
       </c>
       <c r="Y21" t="n">
         <v>205.6826957773044</v>
@@ -24172,7 +24174,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R22" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S22" t="n">
         <v>224.0165980369723</v>
@@ -24184,7 +24186,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -24203,13 +24205,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -24218,16 +24220,16 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H23" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I23" t="n">
-        <v>210.4758895704059</v>
+        <v>120.0869518323295</v>
       </c>
       <c r="J23" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24248,22 +24250,22 @@
         <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V23" t="n">
-        <v>115.4668728266929</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -24282,19 +24284,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>59.84577397866485</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G24" t="n">
         <v>137.3435171632106</v>
@@ -24336,16 +24338,16 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T24" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>232.8005871494253</v>
+        <v>170.365719729939</v>
       </c>
       <c r="W24" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X24" t="n">
         <v>0</v>
@@ -24443,13 +24445,13 @@
         <v>141.7195527858215</v>
       </c>
       <c r="C26" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -24485,7 +24487,7 @@
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>149.8691179411497</v>
@@ -24494,22 +24496,22 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T26" t="n">
-        <v>223.0958495641314</v>
+        <v>20.80116313523413</v>
       </c>
       <c r="U26" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X26" t="n">
-        <v>157.445715035027</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="27">
@@ -24519,16 +24521,16 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C27" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D27" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F27" t="n">
         <v>145.0692123933839</v>
@@ -24540,10 +24542,10 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I27" t="n">
-        <v>57.54915946696373</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -24573,22 +24575,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U27" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X27" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>175.8836868124217</v>
       </c>
     </row>
     <row r="28">
@@ -24655,10 +24657,10 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U28" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>149.0972843361114</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G29" t="n">
-        <v>174.288448637476</v>
+        <v>415.302737515135</v>
       </c>
       <c r="H29" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I29" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>11.94928935461252</v>
@@ -24722,7 +24724,7 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>149.8691179411497</v>
@@ -24746,7 +24748,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>173.9525530126116</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -24762,16 +24764,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D30" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>51.5083940995076</v>
       </c>
       <c r="H30" t="n">
         <v>112.2354442364965</v>
@@ -24804,25 +24806,25 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T30" t="n">
-        <v>46.32716769143889</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U30" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V30" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y30" t="n">
         <v>205.6826957773044</v>
@@ -24877,7 +24879,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>86.16204325169439</v>
@@ -24895,7 +24897,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V31" t="n">
-        <v>118.95067573846</v>
+        <v>121.6721164735665</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>180.4391552345834</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -24923,19 +24925,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>165.8617568640524</v>
       </c>
       <c r="G32" t="n">
-        <v>415.302737515135</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H32" t="n">
         <v>339.4748021157671</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J32" t="n">
         <v>11.94928935461252</v>
@@ -24959,25 +24961,25 @@
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T32" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U32" t="n">
-        <v>10.33136403017744</v>
+        <v>251.3456529078365</v>
       </c>
       <c r="V32" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>315.4372533529632</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -24993,7 +24995,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>166.5331836498673</v>
+        <v>50.77514371154889</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -25008,7 +25010,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G33" t="n">
-        <v>54.31162510566892</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H33" t="n">
         <v>112.2354442364965</v>
@@ -25047,22 +25049,22 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T33" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W33" t="n">
         <v>10.68069428326055</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y33" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -25093,7 +25095,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I34" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189029</v>
       </c>
       <c r="J34" t="n">
         <v>93.35918011667277</v>
@@ -25132,7 +25134,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V34" t="n">
-        <v>118.95067573846</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -25151,10 +25153,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>152.9875061275654</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -25199,13 +25201,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R35" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T35" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.3456529078365</v>
@@ -25217,7 +25219,7 @@
         <v>108.226679839754</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>289.396393662649</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -25236,13 +25238,13 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E36" t="n">
-        <v>54.71802040920612</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -25251,10 +25253,10 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>33.29815638140649</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -25278,10 +25280,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T37" t="n">
-        <v>227.9455894282815</v>
+        <v>94.7586218429135</v>
       </c>
       <c r="U37" t="n">
         <v>286.3190293564909</v>
@@ -25378,7 +25380,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>85.3976857667268</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -25433,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25448,16 +25450,16 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V38" t="n">
-        <v>86.73796959247585</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>258.8520309793366</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>317.8525209948461</v>
       </c>
     </row>
     <row r="39">
@@ -25476,22 +25478,22 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E39" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H39" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I39" t="n">
-        <v>89.39663285141508</v>
+        <v>43.75039116231385</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25515,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>171.6831711038378</v>
@@ -25524,16 +25526,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>6.737766531654842</v>
+        <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W39" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X39" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>205.6826957773044</v>
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>46.64501259656927</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25612,7 +25614,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>92.52268780366916</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -25625,16 +25627,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
-        <v>169.6449844288197</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
         <v>406.8760457417114</v>
@@ -25643,7 +25645,7 @@
         <v>415.302737515135</v>
       </c>
       <c r="H41" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I41" t="n">
         <v>210.4758895704059</v>
@@ -25670,7 +25672,7 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
         <v>149.8691179411497</v>
@@ -25688,10 +25690,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>167.4364142495718</v>
       </c>
       <c r="Y41" t="n">
         <v>145.2236497783945</v>
@@ -25707,7 +25709,7 @@
         <v>0</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D42" t="n">
         <v>147.4450655646388</v>
@@ -25755,7 +25757,7 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S42" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
         <v>200.1647286948216</v>
@@ -25770,10 +25772,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>167.5935165722232</v>
       </c>
       <c r="Y42" t="n">
-        <v>168.6188444567011</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25840,13 +25842,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U43" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>153.336030751223</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -25862,10 +25864,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>141.7195527858215</v>
+        <v>342.2575625303454</v>
       </c>
       <c r="C44" t="n">
-        <v>302.8566240687152</v>
+        <v>124.2586028933485</v>
       </c>
       <c r="D44" t="n">
         <v>113.6687527430239</v>
@@ -25886,7 +25888,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J44" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25907,7 +25909,7 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -25922,7 +25924,7 @@
         <v>251.3456529078365</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -25931,7 +25933,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="45">
@@ -25950,7 +25952,7 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>5.424356414370465</v>
+        <v>95.56758059204344</v>
       </c>
       <c r="F45" t="n">
         <v>0</v>
@@ -25962,10 +25964,10 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>162.2271725074396</v>
       </c>
       <c r="I46" t="n">
-        <v>155.4504749272583</v>
+        <v>22.26350734189026</v>
       </c>
       <c r="J46" t="n">
         <v>93.35918011667277</v>
@@ -26077,7 +26079,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U46" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>490293.0738575745</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575743</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>490293.0738575746</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575746</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>490293.0738575743</v>
+        <v>490293.0738575744</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>490293.0738575744</v>
+        <v>490293.0738575745</v>
       </c>
     </row>
     <row r="16">
@@ -26314,10 +26316,10 @@
         <v>108004.4371453661</v>
       </c>
       <c r="C2" t="n">
+        <v>108004.4371453661</v>
+      </c>
+      <c r="D2" t="n">
         <v>108004.437145366</v>
-      </c>
-      <c r="D2" t="n">
-        <v>108004.4371453661</v>
       </c>
       <c r="E2" t="n">
         <v>108004.437145366</v>
@@ -26329,7 +26331,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="H2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="I2" t="n">
         <v>108004.4371453661</v>
@@ -26338,7 +26340,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="K2" t="n">
-        <v>108004.437145366</v>
+        <v>108004.4371453661</v>
       </c>
       <c r="L2" t="n">
         <v>108004.437145366</v>
@@ -26347,7 +26349,7 @@
         <v>108004.437145366</v>
       </c>
       <c r="N2" t="n">
-        <v>108004.4371453661</v>
+        <v>108004.437145366</v>
       </c>
       <c r="O2" t="n">
         <v>108004.437145366</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>80769.43153154774</v>
+        <v>80769.43153154773</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-37960.95279092419</v>
+        <v>-37960.95279092418</v>
       </c>
       <c r="C6" t="n">
+        <v>42808.47874062355</v>
+      </c>
+      <c r="D6" t="n">
         <v>42808.47874062353</v>
       </c>
-      <c r="D6" t="n">
-        <v>42808.47874062356</v>
-      </c>
       <c r="E6" t="n">
-        <v>76436.0787406235</v>
+        <v>76436.07874062353</v>
       </c>
       <c r="F6" t="n">
+        <v>76436.07874062353</v>
+      </c>
+      <c r="G6" t="n">
+        <v>76436.07874062353</v>
+      </c>
+      <c r="H6" t="n">
         <v>76436.07874062352</v>
-      </c>
-      <c r="G6" t="n">
-        <v>76436.0787406235</v>
-      </c>
-      <c r="H6" t="n">
-        <v>76436.07874062355</v>
       </c>
       <c r="I6" t="n">
         <v>76436.07874062355</v>
       </c>
       <c r="J6" t="n">
-        <v>13376.13614151729</v>
+        <v>13376.1361415173</v>
       </c>
       <c r="K6" t="n">
+        <v>76436.07874062356</v>
+      </c>
+      <c r="L6" t="n">
+        <v>76436.07874062352</v>
+      </c>
+      <c r="M6" t="n">
+        <v>76436.07874062352</v>
+      </c>
+      <c r="N6" t="n">
         <v>76436.07874062353</v>
       </c>
-      <c r="L6" t="n">
+      <c r="O6" t="n">
+        <v>76436.07874062352</v>
+      </c>
+      <c r="P6" t="n">
         <v>76436.07874062353</v>
-      </c>
-      <c r="M6" t="n">
-        <v>76436.07874062353</v>
-      </c>
-      <c r="N6" t="n">
-        <v>76436.07874062355</v>
-      </c>
-      <c r="O6" t="n">
-        <v>76436.07874062353</v>
-      </c>
-      <c r="P6" t="n">
-        <v>76436.07874062349</v>
       </c>
     </row>
   </sheetData>
@@ -34778,10 +34780,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>232.285965523585</v>
+        <v>161.1808241620674</v>
       </c>
       <c r="M3" t="n">
         <v>241.0142888776591</v>
@@ -34790,7 +34792,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>43.28534947792182</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -35015,22 +35017,22 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>232.285965523585</v>
+        <v>34.55702612384782</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>226.4350751681936</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P6" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>70.09551364982758</v>
@@ -35252,19 +35254,19 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.8112771299739</v>
       </c>
       <c r="O9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>184.4883612256069</v>
@@ -35416,7 +35418,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M11" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N11" t="n">
         <v>207.9338608153932</v>
@@ -35495,10 +35497,10 @@
         <v>232.285965523585</v>
       </c>
       <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
         <v>169.9067907798017</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>241.0142888776591</v>
@@ -35653,7 +35655,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M14" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N14" t="n">
         <v>207.9338608153932</v>
@@ -35726,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M15" t="n">
-        <v>99.81127712997396</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="O15" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P15" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35893,7 +35895,7 @@
         <v>219.1673002655598</v>
       </c>
       <c r="N17" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O17" t="n">
         <v>150.7019698410586</v>
@@ -35963,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M18" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9091475161415</v>
       </c>
       <c r="N18" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O18" t="n">
-        <v>91.0829537758999</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P18" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>70.09551364982758</v>
@@ -36200,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M21" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>241.0142888776591</v>
+        <v>226.4350751681936</v>
       </c>
       <c r="O21" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="P21" t="n">
-        <v>34.55702612384782</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q21" t="n">
         <v>70.09551364982758</v>
@@ -36443,7 +36445,7 @@
         <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>217.7067518141195</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N24" t="n">
         <v>241.0142888776591</v>
@@ -36455,7 +36457,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q24" t="n">
-        <v>70.09551364982758</v>
+        <v>46.78797658628819</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36674,7 +36676,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L27" t="n">
         <v>232.285965523585</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O27" t="n">
         <v>241.0142888776591</v>
@@ -36692,7 +36694,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>55.51629994036219</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36914,13 +36916,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L30" t="n">
-        <v>161.1784674257276</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O30" t="n">
         <v>241.0142888776591</v>
@@ -37154,7 +37156,7 @@
         <v>232.285965523585</v>
       </c>
       <c r="M33" t="n">
-        <v>99.81127712997396</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -37166,7 +37168,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q33" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>126.6237980382196</v>
+        <v>55.51629994036225</v>
       </c>
       <c r="L36" t="n">
         <v>232.285965523585</v>
@@ -37397,13 +37399,13 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>99.8112771299739</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="P36" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q36" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37625,22 +37627,22 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M39" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="N39" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O39" t="n">
-        <v>91.0829537758999</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>184.4883612256069</v>
       </c>
       <c r="Q39" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L42" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M42" t="n">
-        <v>169.9091475161415</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N42" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O42" t="n">
         <v>241.0142888776591</v>
@@ -38023,7 +38025,7 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M44" t="n">
-        <v>219.1673002655597</v>
+        <v>219.1673002655598</v>
       </c>
       <c r="N44" t="n">
         <v>207.9338608153932</v>
@@ -38096,7 +38098,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>126.6237980382196</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>232.285965523585</v>
@@ -38105,16 +38107,16 @@
         <v>241.0142888776591</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="O45" t="n">
-        <v>99.8112771299739</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="P45" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>70.09551364982758</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
